--- a/Results/ExportedCsvCulledFull.xlsx
+++ b/Results/ExportedCsvCulledFull.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\lapof\Documents\Development\ProjectedAreaHeuristic\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8545AA0B-7C8C-4D05-9598-2E949DA4384A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31D6E4A8-BC62-43A6-BFC0-D0AEB8BBA593}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-30" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-30" windowWidth="29040" windowHeight="15720" tabRatio="660" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -9718,12 +9718,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:AE161"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
+      <selection pane="bottomLeft" activeCell="A149" sqref="A149:XFD149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9921,27 +9920,27 @@
         <v>7.3235511081293198E-5</v>
       </c>
       <c r="AA2" s="3">
-        <f>ABS((G2-B2)/B2)</f>
+        <f t="shared" ref="AA2:AA33" si="0">ABS((G2-B2)/B2)</f>
         <v>7.7180754916827701E-2</v>
       </c>
       <c r="AB2" s="3">
-        <f>ABS((J2-C2)/C2)</f>
+        <f t="shared" ref="AB2:AB33" si="1">ABS((J2-C2)/C2)</f>
         <v>8.0406462822325733E-2</v>
       </c>
       <c r="AC2" s="3">
-        <f>(J2-G2)/G2</f>
+        <f t="shared" ref="AC2:AC33" si="2">(J2-G2)/G2</f>
         <v>1.1672158655086144</v>
       </c>
       <c r="AD2" s="3">
-        <f>(J2-D2)/D2</f>
+        <f t="shared" ref="AD2:AD33" si="3">(J2-D2)/D2</f>
         <v>1.0721850182603512</v>
       </c>
       <c r="AE2" s="3">
-        <f>(G2+H2-J2)/H2</f>
+        <f t="shared" ref="AE2:AE33" si="4">(G2+H2-J2)/H2</f>
         <v>0.61822939517530484</v>
       </c>
     </row>
-    <row r="3" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>111</v>
       </c>
@@ -10021,23 +10020,23 @@
         <v>7.2214344982057796E-5</v>
       </c>
       <c r="AA3" s="3">
-        <f>ABS((G3-B3)/B3)</f>
+        <f t="shared" si="0"/>
         <v>6.3503727847505718E-3</v>
       </c>
       <c r="AB3" s="3">
-        <f>ABS((J3-C3)/C3)</f>
+        <f t="shared" si="1"/>
         <v>0.86688457199279667</v>
       </c>
       <c r="AC3" s="3">
-        <f>(J3-G3)/G3</f>
+        <f t="shared" si="2"/>
         <v>-0.54527340846602446</v>
       </c>
       <c r="AD3" s="3">
-        <f>(J3-D3)/D3</f>
+        <f t="shared" si="3"/>
         <v>-0.56248437453123534</v>
       </c>
       <c r="AE3" s="3">
-        <f>(G3+H3-J3)/H3</f>
+        <f t="shared" si="4"/>
         <v>2.7603849747251337</v>
       </c>
     </row>
@@ -10121,27 +10120,27 @@
         <v>7.3065406468231204E-5</v>
       </c>
       <c r="AA4" s="3">
-        <f>ABS((G4-B4)/B4)</f>
+        <f t="shared" si="0"/>
         <v>2.1454435549091204E-2</v>
       </c>
       <c r="AB4" s="3">
-        <f>ABS((J4-C4)/C4)</f>
+        <f t="shared" si="1"/>
         <v>1.2128124616608702</v>
       </c>
       <c r="AC4" s="3">
-        <f>(J4-G4)/G4</f>
+        <f t="shared" si="2"/>
         <v>0.97734624577443485</v>
       </c>
       <c r="AD4" s="3">
-        <f>(J4-D4)/D4</f>
+        <f t="shared" si="3"/>
         <v>0.97734624577443485</v>
       </c>
       <c r="AE4" s="3">
-        <f>(G4+H4-J4)/H4</f>
+        <f t="shared" si="4"/>
         <v>2.2653754225565141E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>113</v>
       </c>
@@ -10221,23 +10220,23 @@
         <v>7.1984097303356894E-5</v>
       </c>
       <c r="AA5" s="3">
-        <f>ABS((G5-B5)/B5)</f>
+        <f t="shared" si="0"/>
         <v>1.3201031851617921E-3</v>
       </c>
       <c r="AB5" s="3">
-        <f>ABS((J5-C5)/C5)</f>
+        <f t="shared" si="1"/>
         <v>0.72896439356678122</v>
       </c>
       <c r="AC5" s="3">
-        <f>(J5-G5)/G5</f>
+        <f t="shared" si="2"/>
         <v>-0.63368416869742983</v>
       </c>
       <c r="AD5" s="3">
-        <f>(J5-D5)/D5</f>
+        <f t="shared" si="3"/>
         <v>-0.64126193431860157</v>
       </c>
       <c r="AE5" s="3">
-        <f>(G5+H5-J5)/H5</f>
+        <f t="shared" si="4"/>
         <v>4.539930409760248</v>
       </c>
     </row>
@@ -10321,27 +10320,27 @@
         <v>7.2083304985426299E-5</v>
       </c>
       <c r="AA6" s="3">
-        <f>ABS((G6-B6)/B6)</f>
+        <f t="shared" si="0"/>
         <v>3.3933181044016693E-2</v>
       </c>
       <c r="AB6" s="3">
-        <f>ABS((J6-C6)/C6)</f>
+        <f t="shared" si="1"/>
         <v>0.17447086650395593</v>
       </c>
       <c r="AC6" s="3">
-        <f>(J6-G6)/G6</f>
+        <f t="shared" si="2"/>
         <v>0.64154653321141142</v>
       </c>
       <c r="AD6" s="3">
-        <f>(J6-D6)/D6</f>
+        <f t="shared" si="3"/>
         <v>0.6217128766386173</v>
       </c>
       <c r="AE6" s="3">
-        <f>(G6+H6-J6)/H6</f>
+        <f t="shared" si="4"/>
         <v>0.6852634948556392</v>
       </c>
     </row>
-    <row r="7" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>91</v>
       </c>
@@ -10421,23 +10420,23 @@
         <v>7.1846137871034403E-5</v>
       </c>
       <c r="AA7" s="3">
-        <f>ABS((G7-B7)/B7)</f>
+        <f t="shared" si="0"/>
         <v>1.9432871004399228E-3</v>
       </c>
       <c r="AB7" s="3">
-        <f>ABS((J7-C7)/C7)</f>
+        <f t="shared" si="1"/>
         <v>0.59946673150073859</v>
       </c>
       <c r="AC7" s="3">
-        <f>(J7-G7)/G7</f>
+        <f t="shared" si="2"/>
         <v>-0.64536773119401702</v>
       </c>
       <c r="AD7" s="3">
-        <f>(J7-D7)/D7</f>
+        <f t="shared" si="3"/>
         <v>-0.6506421017608961</v>
       </c>
       <c r="AE7" s="3">
-        <f>(G7+H7-J7)/H7</f>
+        <f t="shared" si="4"/>
         <v>5.3174827268245197</v>
       </c>
     </row>
@@ -10521,27 +10520,27 @@
         <v>7.1849288360681303E-5</v>
       </c>
       <c r="AA8" s="3">
-        <f>ABS((G8-B8)/B8)</f>
+        <f t="shared" si="0"/>
         <v>3.0810687887617111E-3</v>
       </c>
       <c r="AB8" s="3">
-        <f>ABS((J8-C8)/C8)</f>
+        <f t="shared" si="1"/>
         <v>1.3469354458142226</v>
       </c>
       <c r="AC8" s="3">
-        <f>(J8-G8)/G8</f>
+        <f t="shared" si="2"/>
         <v>0.57831323006154056</v>
       </c>
       <c r="AD8" s="3">
-        <f>(J8-D8)/D8</f>
+        <f t="shared" si="3"/>
         <v>0.57831323006154056</v>
       </c>
       <c r="AE8" s="3">
-        <f>(G8+H8-J8)/H8</f>
+        <f t="shared" si="4"/>
         <v>0.42168676993845949</v>
       </c>
     </row>
-    <row r="9" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>104</v>
       </c>
@@ -10621,23 +10620,23 @@
         <v>7.2287584771402099E-5</v>
       </c>
       <c r="AA9" s="3">
-        <f>ABS((G9-B9)/B9)</f>
+        <f t="shared" si="0"/>
         <v>4.5600550059099907E-3</v>
       </c>
       <c r="AB9" s="3">
-        <f>ABS((J9-C9)/C9)</f>
+        <f t="shared" si="1"/>
         <v>0.59379738898147505</v>
       </c>
       <c r="AC9" s="3">
-        <f>(J9-G9)/G9</f>
+        <f t="shared" si="2"/>
         <v>-0.46978090385670296</v>
       </c>
       <c r="AD9" s="3">
-        <f>(J9-D9)/D9</f>
+        <f t="shared" si="3"/>
         <v>-0.51825561459864244</v>
       </c>
       <c r="AE9" s="3">
-        <f>(G9+H9-J9)/H9</f>
+        <f t="shared" si="4"/>
         <v>2.1111532663328809</v>
       </c>
     </row>
@@ -10721,23 +10720,23 @@
         <v>7.1836031565908302E-5</v>
       </c>
       <c r="AA10" s="3">
-        <f>ABS((G10-B10)/B10)</f>
+        <f t="shared" si="0"/>
         <v>8.473083594866572E-3</v>
       </c>
       <c r="AB10" s="3">
-        <f>ABS((J10-C10)/C10)</f>
+        <f t="shared" si="1"/>
         <v>1.201771698547238</v>
       </c>
       <c r="AC10" s="3">
-        <f>(J10-G10)/G10</f>
+        <f t="shared" si="2"/>
         <v>0.55901419686204523</v>
       </c>
       <c r="AD10" s="3">
-        <f>(J10-D10)/D10</f>
+        <f t="shared" si="3"/>
         <v>0.55901419686204523</v>
       </c>
       <c r="AE10" s="3">
-        <f>(G10+H10-J10)/H10</f>
+        <f t="shared" si="4"/>
         <v>0.44098580313795471</v>
       </c>
     </row>
@@ -10821,23 +10820,23 @@
         <v>7.2695518610998893E-5</v>
       </c>
       <c r="AA11" s="3">
-        <f>ABS((G11-B11)/B11)</f>
+        <f t="shared" si="0"/>
         <v>2.0676159415606367E-4</v>
       </c>
       <c r="AB11" s="3">
-        <f>ABS((J11-C11)/C11)</f>
+        <f t="shared" si="1"/>
         <v>8.5938219099792448E-2</v>
       </c>
       <c r="AC11" s="3">
-        <f>(J11-G11)/G11</f>
+        <f t="shared" si="2"/>
         <v>0.55803787174203678</v>
       </c>
       <c r="AD11" s="3">
-        <f>(J11-D11)/D11</f>
+        <f t="shared" si="3"/>
         <v>-0.30990588037155581</v>
       </c>
       <c r="AE11" s="3">
-        <f>(G11+H11-J11)/H11</f>
+        <f t="shared" si="4"/>
         <v>0.62463813922997313</v>
       </c>
     </row>
@@ -10921,23 +10920,23 @@
         <v>8.3279053797014003E-5</v>
       </c>
       <c r="AA12" s="3">
-        <f>ABS((G12-B12)/B12)</f>
+        <f t="shared" si="0"/>
         <v>6.3646415173897021E-3</v>
       </c>
       <c r="AB12" s="3">
-        <f>ABS((J12-C12)/C12)</f>
+        <f t="shared" si="1"/>
         <v>0.59008899812115667</v>
       </c>
       <c r="AC12" s="3">
-        <f>(J12-G12)/G12</f>
+        <f t="shared" si="2"/>
         <v>0.54839339998922243</v>
       </c>
       <c r="AD12" s="3">
-        <f>(J12-D12)/D12</f>
+        <f t="shared" si="3"/>
         <v>0.20161449430352346</v>
       </c>
       <c r="AE12" s="3">
-        <f>(G12+H12-J12)/H12</f>
+        <f t="shared" si="4"/>
         <v>0.41283329587586853</v>
       </c>
     </row>
@@ -11021,23 +11020,23 @@
         <v>7.2121365519706106E-5</v>
       </c>
       <c r="AA13" s="3">
-        <f>ABS((G13-B13)/B13)</f>
+        <f t="shared" si="0"/>
         <v>3.4856925740900145E-3</v>
       </c>
       <c r="AB13" s="3">
-        <f>ABS((J13-C13)/C13)</f>
+        <f t="shared" si="1"/>
         <v>0.31791233312168182</v>
       </c>
       <c r="AC13" s="3">
-        <f>(J13-G13)/G13</f>
+        <f t="shared" si="2"/>
         <v>0.516564864736203</v>
       </c>
       <c r="AD13" s="3">
-        <f>(J13-D13)/D13</f>
+        <f t="shared" si="3"/>
         <v>0.19767137832258261</v>
       </c>
       <c r="AE13" s="3">
-        <f>(G13+H13-J13)/H13</f>
+        <f t="shared" si="4"/>
         <v>0.61004661559751627</v>
       </c>
     </row>
@@ -11121,23 +11120,23 @@
         <v>9.3676273536402705E-5</v>
       </c>
       <c r="AA14" s="3">
-        <f>ABS((G14-B14)/B14)</f>
+        <f t="shared" si="0"/>
         <v>2.5735105295083636E-3</v>
       </c>
       <c r="AB14" s="3">
-        <f>ABS((J14-C14)/C14)</f>
+        <f t="shared" si="1"/>
         <v>0.58767205785944709</v>
       </c>
       <c r="AC14" s="3">
-        <f>(J14-G14)/G14</f>
+        <f t="shared" si="2"/>
         <v>0.50040126566905629</v>
       </c>
       <c r="AD14" s="3">
-        <f>(J14-D14)/D14</f>
+        <f t="shared" si="3"/>
         <v>0.18017397240872582</v>
       </c>
       <c r="AE14" s="3">
-        <f>(G14+H14-J14)/H14</f>
+        <f t="shared" si="4"/>
         <v>0.56292999337024396</v>
       </c>
     </row>
@@ -11221,23 +11220,23 @@
         <v>7.0548187068197795E-5</v>
       </c>
       <c r="AA15" s="3">
-        <f>ABS((G15-B15)/B15)</f>
+        <f t="shared" si="0"/>
         <v>6.135541412706857E-3</v>
       </c>
       <c r="AB15" s="3">
-        <f>ABS((J15-C15)/C15)</f>
+        <f t="shared" si="1"/>
         <v>9.2949625210606859E-2</v>
       </c>
       <c r="AC15" s="3">
-        <f>(J15-G15)/G15</f>
+        <f t="shared" si="2"/>
         <v>0.46758833719552501</v>
       </c>
       <c r="AD15" s="3">
-        <f>(J15-D15)/D15</f>
+        <f t="shared" si="3"/>
         <v>-0.32126295255856863</v>
       </c>
       <c r="AE15" s="3">
-        <f>(G15+H15-J15)/H15</f>
+        <f t="shared" si="4"/>
         <v>0.66567369094355999</v>
       </c>
     </row>
@@ -11321,23 +11320,23 @@
         <v>7.2236558480653898E-5</v>
       </c>
       <c r="AA16" s="3">
-        <f>ABS((G16-B16)/B16)</f>
+        <f t="shared" si="0"/>
         <v>4.309109356319607E-2</v>
       </c>
       <c r="AB16" s="3">
-        <f>ABS((J16-C16)/C16)</f>
+        <f t="shared" si="1"/>
         <v>1.5701550806970379</v>
       </c>
       <c r="AC16" s="3">
-        <f>(J16-G16)/G16</f>
+        <f t="shared" si="2"/>
         <v>0.44807948735121533</v>
       </c>
       <c r="AD16" s="3">
-        <f>(J16-D16)/D16</f>
+        <f t="shared" si="3"/>
         <v>0.44807948735121533</v>
       </c>
       <c r="AE16" s="3">
-        <f>(G16+H16-J16)/H16</f>
+        <f t="shared" si="4"/>
         <v>0.55192051264878461</v>
       </c>
     </row>
@@ -11421,23 +11420,23 @@
         <v>7.3194627475459102E-5</v>
       </c>
       <c r="AA17" s="3">
-        <f>ABS((G17-B17)/B17)</f>
+        <f t="shared" si="0"/>
         <v>1.6763151627090335E-2</v>
       </c>
       <c r="AB17" s="3">
-        <f>ABS((J17-C17)/C17)</f>
+        <f t="shared" si="1"/>
         <v>1.5568228140416167</v>
       </c>
       <c r="AC17" s="3">
-        <f>(J17-G17)/G17</f>
+        <f t="shared" si="2"/>
         <v>0.38882693991072886</v>
       </c>
       <c r="AD17" s="3">
-        <f>(J17-D17)/D17</f>
+        <f t="shared" si="3"/>
         <v>0.38882693991072886</v>
       </c>
       <c r="AE17" s="3">
-        <f>(G17+H17-J17)/H17</f>
+        <f t="shared" si="4"/>
         <v>0.61117306008927119</v>
       </c>
     </row>
@@ -11521,23 +11520,23 @@
         <v>7.29639796190895E-5</v>
       </c>
       <c r="AA18" s="3">
-        <f>ABS((G18-B18)/B18)</f>
+        <f t="shared" si="0"/>
         <v>6.6705965775602089E-3</v>
       </c>
       <c r="AB18" s="3">
-        <f>ABS((J18-C18)/C18)</f>
+        <f t="shared" si="1"/>
         <v>0.58252581216767685</v>
       </c>
       <c r="AC18" s="3">
-        <f>(J18-G18)/G18</f>
+        <f t="shared" si="2"/>
         <v>0.37155715737996414</v>
       </c>
       <c r="AD18" s="3">
-        <f>(J18-D18)/D18</f>
+        <f t="shared" si="3"/>
         <v>6.9506310303668398E-2</v>
       </c>
       <c r="AE18" s="3">
-        <f>(G18+H18-J18)/H18</f>
+        <f t="shared" si="4"/>
         <v>0.66320587075929427</v>
       </c>
     </row>
@@ -11621,23 +11620,23 @@
         <v>7.2266280767507797E-5</v>
       </c>
       <c r="AA19" s="3">
-        <f>ABS((G19-B19)/B19)</f>
+        <f t="shared" si="0"/>
         <v>3.2272224268530981E-3</v>
       </c>
       <c r="AB19" s="3">
-        <f>ABS((J19-C19)/C19)</f>
+        <f t="shared" si="1"/>
         <v>1.3508916737928878</v>
       </c>
       <c r="AC19" s="3">
-        <f>(J19-G19)/G19</f>
+        <f t="shared" si="2"/>
         <v>0.3277464691618811</v>
       </c>
       <c r="AD19" s="3">
-        <f>(J19-D19)/D19</f>
+        <f t="shared" si="3"/>
         <v>0.3257282438143751</v>
       </c>
       <c r="AE19" s="3">
-        <f>(G19+H19-J19)/H19</f>
+        <f t="shared" si="4"/>
         <v>0.35411980559864942</v>
       </c>
     </row>
@@ -11721,23 +11720,23 @@
         <v>8.7404332589357996E-5</v>
       </c>
       <c r="AA20" s="3">
-        <f>ABS((G20-B20)/B20)</f>
+        <f t="shared" si="0"/>
         <v>2.9946447662728554E-2</v>
       </c>
       <c r="AB20" s="3">
-        <f>ABS((J20-C20)/C20)</f>
+        <f t="shared" si="1"/>
         <v>0.59008899812115667</v>
       </c>
       <c r="AC20" s="3">
-        <f>(J20-G20)/G20</f>
+        <f t="shared" si="2"/>
         <v>0.31517173905640539</v>
       </c>
       <c r="AD20" s="3">
-        <f>(J20-D20)/D20</f>
+        <f t="shared" si="3"/>
         <v>5.6256224896830506E-2</v>
       </c>
       <c r="AE20" s="3">
-        <f>(G20+H20-J20)/H20</f>
+        <f t="shared" si="4"/>
         <v>0.60270297528645012</v>
       </c>
     </row>
@@ -11821,23 +11820,23 @@
         <v>7.3505900218151496E-5</v>
       </c>
       <c r="AA21" s="3">
-        <f>ABS((G21-B21)/B21)</f>
+        <f t="shared" si="0"/>
         <v>4.2348798706684385E-2</v>
       </c>
       <c r="AB21" s="3">
-        <f>ABS((J21-C21)/C21)</f>
+        <f t="shared" si="1"/>
         <v>0.39295748041488504</v>
       </c>
       <c r="AC21" s="3">
-        <f>(J21-G21)/G21</f>
+        <f t="shared" si="2"/>
         <v>0.31309136554960998</v>
       </c>
       <c r="AD21" s="3">
-        <f>(J21-D21)/D21</f>
+        <f t="shared" si="3"/>
         <v>0.30240593761877987</v>
       </c>
       <c r="AE21" s="3">
-        <f>(G21+H21-J21)/H21</f>
+        <f t="shared" si="4"/>
         <v>0.80919294512072726</v>
       </c>
     </row>
@@ -11921,27 +11920,27 @@
         <v>7.1937211032491096E-5</v>
       </c>
       <c r="AA22" s="3">
-        <f>ABS((G22-B22)/B22)</f>
+        <f t="shared" si="0"/>
         <v>5.4579230195666267E-2</v>
       </c>
       <c r="AB22" s="3">
-        <f>ABS((J22-C22)/C22)</f>
+        <f t="shared" si="1"/>
         <v>0.39331406594754065</v>
       </c>
       <c r="AC22" s="3">
-        <f>(J22-G22)/G22</f>
+        <f t="shared" si="2"/>
         <v>0.3107188428667107</v>
       </c>
       <c r="AD22" s="3">
-        <f>(J22-D22)/D22</f>
+        <f t="shared" si="3"/>
         <v>0.29881113976566809</v>
       </c>
       <c r="AE22" s="3">
-        <f>(G22+H22-J22)/H22</f>
+        <f t="shared" si="4"/>
         <v>0.76276376415932801</v>
       </c>
     </row>
-    <row r="23" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>60</v>
       </c>
@@ -12021,23 +12020,23 @@
         <v>7.1740752900950597E-5</v>
       </c>
       <c r="AA23" s="3">
-        <f>ABS((G23-B23)/B23)</f>
+        <f t="shared" si="0"/>
         <v>4.1043694607531753E-3</v>
       </c>
       <c r="AB23" s="3">
-        <f>ABS((J23-C23)/C23)</f>
+        <f t="shared" si="1"/>
         <v>1.7275281463795835</v>
       </c>
       <c r="AC23" s="3">
-        <f>(J23-G23)/G23</f>
+        <f t="shared" si="2"/>
         <v>-0.54549381217280513</v>
       </c>
       <c r="AD23" s="3">
-        <f>(J23-D23)/D23</f>
+        <f t="shared" si="3"/>
         <v>-0.54549381217280513</v>
       </c>
       <c r="AE23" s="3">
-        <f>(G23+H23-J23)/H23</f>
+        <f t="shared" si="4"/>
         <v>1.5454938121728052</v>
       </c>
     </row>
@@ -12121,27 +12120,27 @@
         <v>7.1263959398493103E-5</v>
       </c>
       <c r="AA24" s="3">
-        <f>ABS((G24-B24)/B24)</f>
+        <f t="shared" si="0"/>
         <v>8.1016586119237732E-3</v>
       </c>
       <c r="AB24" s="3">
-        <f>ABS((J24-C24)/C24)</f>
+        <f t="shared" si="1"/>
         <v>0.13961510198876781</v>
       </c>
       <c r="AC24" s="3">
-        <f>(J24-G24)/G24</f>
+        <f t="shared" si="2"/>
         <v>0.30949452220633156</v>
       </c>
       <c r="AD24" s="3">
-        <f>(J24-D24)/D24</f>
+        <f t="shared" si="3"/>
         <v>-0.36536909038005022</v>
       </c>
       <c r="AE24" s="3">
-        <f>(G24+H24-J24)/H24</f>
+        <f t="shared" si="4"/>
         <v>0.74941167266097675</v>
       </c>
     </row>
-    <row r="25" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>72</v>
       </c>
@@ -12221,23 +12220,23 @@
         <v>7.2455186455044895E-5</v>
       </c>
       <c r="AA25" s="3">
-        <f>ABS((G25-B25)/B25)</f>
+        <f t="shared" si="0"/>
         <v>1.9751596689361568E-2</v>
       </c>
       <c r="AB25" s="3">
-        <f>ABS((J25-C25)/C25)</f>
+        <f t="shared" si="1"/>
         <v>1.7336059572006746</v>
       </c>
       <c r="AC25" s="3">
-        <f>(J25-G25)/G25</f>
+        <f t="shared" si="2"/>
         <v>-0.60032495239644579</v>
       </c>
       <c r="AD25" s="3">
-        <f>(J25-D25)/D25</f>
+        <f t="shared" si="3"/>
         <v>-0.60032495239644579</v>
       </c>
       <c r="AE25" s="3">
-        <f>(G25+H25-J25)/H25</f>
+        <f t="shared" si="4"/>
         <v>1.6003249523964458</v>
       </c>
     </row>
@@ -12321,27 +12320,27 @@
         <v>7.16134745744057E-5</v>
       </c>
       <c r="AA26" s="3">
-        <f>ABS((G26-B26)/B26)</f>
+        <f t="shared" si="0"/>
         <v>2.6056851765226367E-2</v>
       </c>
       <c r="AB26" s="3">
-        <f>ABS((J26-C26)/C26)</f>
+        <f t="shared" si="1"/>
         <v>0.19030020671732004</v>
       </c>
       <c r="AC26" s="3">
-        <f>(J26-G26)/G26</f>
+        <f t="shared" si="2"/>
         <v>0.2987593623878676</v>
       </c>
       <c r="AD26" s="3">
-        <f>(J26-D26)/D26</f>
+        <f t="shared" si="3"/>
         <v>0.15459210399317067</v>
       </c>
       <c r="AE26" s="3">
-        <f>(G26+H26-J26)/H26</f>
+        <f t="shared" si="4"/>
         <v>0.29894801972162122</v>
       </c>
     </row>
-    <row r="27" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>64</v>
       </c>
@@ -12421,23 +12420,23 @@
         <v>7.1856127760838704E-5</v>
       </c>
       <c r="AA27" s="3">
-        <f>ABS((G27-B27)/B27)</f>
+        <f t="shared" si="0"/>
         <v>6.8932889670883643E-3</v>
       </c>
       <c r="AB27" s="3">
-        <f>ABS((J27-C27)/C27)</f>
+        <f t="shared" si="1"/>
         <v>1.5244955009130705</v>
       </c>
       <c r="AC27" s="3">
-        <f>(J27-G27)/G27</f>
+        <f t="shared" si="2"/>
         <v>-0.59564394815857358</v>
       </c>
       <c r="AD27" s="3">
-        <f>(J27-D27)/D27</f>
+        <f t="shared" si="3"/>
         <v>-0.59564394815857358</v>
       </c>
       <c r="AE27" s="3">
-        <f>(G27+H27-J27)/H27</f>
+        <f t="shared" si="4"/>
         <v>1.5956439481585736</v>
       </c>
     </row>
@@ -12521,27 +12520,27 @@
         <v>7.4246003350708607E-5</v>
       </c>
       <c r="AA28" s="3">
-        <f>ABS((G28-B28)/B28)</f>
+        <f t="shared" si="0"/>
         <v>7.7127853189093612E-2</v>
       </c>
       <c r="AB28" s="3">
-        <f>ABS((J28-C28)/C28)</f>
+        <f t="shared" si="1"/>
         <v>0.1466179969217937</v>
       </c>
       <c r="AC28" s="3">
-        <f>(J28-G28)/G28</f>
+        <f t="shared" si="2"/>
         <v>0.29164624702259401</v>
       </c>
       <c r="AD28" s="3">
-        <f>(J28-D28)/D28</f>
+        <f t="shared" si="3"/>
         <v>4.7863961076499741E-2</v>
       </c>
       <c r="AE28" s="3">
-        <f>(G28+H28-J28)/H28</f>
+        <f t="shared" si="4"/>
         <v>0.48477333881980766</v>
       </c>
     </row>
-    <row r="29" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>70</v>
       </c>
@@ -12621,23 +12620,23 @@
         <v>7.4275078077334897E-5</v>
       </c>
       <c r="AA29" s="3">
-        <f>ABS((G29-B29)/B29)</f>
+        <f t="shared" si="0"/>
         <v>2.7713465113354398E-2</v>
       </c>
       <c r="AB29" s="3">
-        <f>ABS((J29-C29)/C29)</f>
+        <f t="shared" si="1"/>
         <v>1.3324109593774967</v>
       </c>
       <c r="AC29" s="3">
-        <f>(J29-G29)/G29</f>
+        <f t="shared" si="2"/>
         <v>-0.42933863177310283</v>
       </c>
       <c r="AD29" s="3">
-        <f>(J29-D29)/D29</f>
+        <f t="shared" si="3"/>
         <v>-0.42933863177310283</v>
       </c>
       <c r="AE29" s="3">
-        <f>(G29+H29-J29)/H29</f>
+        <f t="shared" si="4"/>
         <v>1.4293386317731029</v>
       </c>
     </row>
@@ -12721,23 +12720,23 @@
         <v>8.4892373706679696E-5</v>
       </c>
       <c r="AA30" s="3">
-        <f>ABS((G30-B30)/B30)</f>
+        <f t="shared" si="0"/>
         <v>0.11583515509672411</v>
       </c>
       <c r="AB30" s="3">
-        <f>ABS((J30-C30)/C30)</f>
+        <f t="shared" si="1"/>
         <v>9.7425650875690273E-2</v>
       </c>
       <c r="AC30" s="3">
-        <f>(J30-G30)/G30</f>
+        <f t="shared" si="2"/>
         <v>0.2860556945362242</v>
       </c>
       <c r="AD30" s="3">
-        <f>(J30-D30)/D30</f>
+        <f t="shared" si="3"/>
         <v>3.7384739621155669E-2</v>
       </c>
       <c r="AE30" s="3">
-        <f>(G30+H30-J30)/H30</f>
+        <f t="shared" si="4"/>
         <v>0.49283226096294158</v>
       </c>
     </row>
@@ -12821,23 +12820,23 @@
         <v>7.1772949013393305E-5</v>
       </c>
       <c r="AA31" s="3">
-        <f>ABS((G31-B31)/B31)</f>
+        <f t="shared" si="0"/>
         <v>7.4228085609186728E-2</v>
       </c>
       <c r="AB31" s="3">
-        <f>ABS((J31-C31)/C31)</f>
+        <f t="shared" si="1"/>
         <v>5.5475693564365207E-2</v>
       </c>
       <c r="AC31" s="3">
-        <f>(J31-G31)/G31</f>
+        <f t="shared" si="2"/>
         <v>0.26588160579228448</v>
       </c>
       <c r="AD31" s="3">
-        <f>(J31-D31)/D31</f>
+        <f t="shared" si="3"/>
         <v>4.2766863348274028E-3</v>
       </c>
       <c r="AE31" s="3">
-        <f>(G31+H31-J31)/H31</f>
+        <f t="shared" si="4"/>
         <v>0.54987736369666296</v>
       </c>
     </row>
@@ -12921,23 +12920,23 @@
         <v>7.22467375453561E-5</v>
       </c>
       <c r="AA32" s="3">
-        <f>ABS((G32-B32)/B32)</f>
+        <f t="shared" si="0"/>
         <v>2.9712927601118398E-2</v>
       </c>
       <c r="AB32" s="3">
-        <f>ABS((J32-C32)/C32)</f>
+        <f t="shared" si="1"/>
         <v>1.5650650351237325</v>
       </c>
       <c r="AC32" s="3">
-        <f>(J32-G32)/G32</f>
+        <f t="shared" si="2"/>
         <v>0.26449403883067268</v>
       </c>
       <c r="AD32" s="3">
-        <f>(J32-D32)/D32</f>
+        <f t="shared" si="3"/>
         <v>0.26449403883067268</v>
       </c>
       <c r="AE32" s="3">
-        <f>(G32+H32-J32)/H32</f>
+        <f t="shared" si="4"/>
         <v>0.73550596116932732</v>
       </c>
     </row>
@@ -13021,23 +13020,23 @@
         <v>7.2938964876811897E-5</v>
       </c>
       <c r="AA33" s="3">
-        <f>ABS((G33-B33)/B33)</f>
+        <f t="shared" si="0"/>
         <v>0.46971130971742553</v>
       </c>
       <c r="AB33" s="3">
-        <f>ABS((J33-C33)/C33)</f>
+        <f t="shared" si="1"/>
         <v>0.10058065608064327</v>
       </c>
       <c r="AC33" s="3">
-        <f>(J33-G33)/G33</f>
+        <f t="shared" si="2"/>
         <v>0.22992371216240848</v>
       </c>
       <c r="AD33" s="3">
-        <f>(J33-D33)/D33</f>
+        <f t="shared" si="3"/>
         <v>8.4863963010581411E-2</v>
       </c>
       <c r="AE33" s="3">
-        <f>(G33+H33-J33)/H33</f>
+        <f t="shared" si="4"/>
         <v>0.10412872228269157</v>
       </c>
     </row>
@@ -13121,23 +13120,23 @@
         <v>7.2474213084205904E-5</v>
       </c>
       <c r="AA34" s="3">
-        <f>ABS((G34-B34)/B34)</f>
+        <f t="shared" ref="AA34:AA65" si="5">ABS((G34-B34)/B34)</f>
         <v>5.4859138854737956E-2</v>
       </c>
       <c r="AB34" s="3">
-        <f>ABS((J34-C34)/C34)</f>
+        <f t="shared" ref="AB34:AB65" si="6">ABS((J34-C34)/C34)</f>
         <v>0.11043366720842886</v>
       </c>
       <c r="AC34" s="3">
-        <f>(J34-G34)/G34</f>
+        <f t="shared" ref="AC34:AC65" si="7">(J34-G34)/G34</f>
         <v>0.22873903388765496</v>
       </c>
       <c r="AD34" s="3">
-        <f>(J34-D34)/D34</f>
+        <f t="shared" ref="AD34:AD65" si="8">(J34-D34)/D34</f>
         <v>-1.2058868439087881E-2</v>
       </c>
       <c r="AE34" s="3">
-        <f>(G34+H34-J34)/H34</f>
+        <f t="shared" ref="AE34:AE65" si="9">(G34+H34-J34)/H34</f>
         <v>0.60584690342870251</v>
       </c>
     </row>
@@ -13221,23 +13220,23 @@
         <v>7.0775138738099404E-5</v>
       </c>
       <c r="AA35" s="3">
-        <f>ABS((G35-B35)/B35)</f>
+        <f t="shared" si="5"/>
         <v>7.4784460228731096E-4</v>
       </c>
       <c r="AB35" s="3">
-        <f>ABS((J35-C35)/C35)</f>
+        <f t="shared" si="6"/>
         <v>0.14523727419852392</v>
       </c>
       <c r="AC35" s="3">
-        <f>(J35-G35)/G35</f>
+        <f t="shared" si="7"/>
         <v>0.22766023728480134</v>
       </c>
       <c r="AD35" s="3">
-        <f>(J35-D35)/D35</f>
+        <f t="shared" si="8"/>
         <v>-0.39497305638611263</v>
       </c>
       <c r="AE35" s="3">
-        <f>(G35+H35-J35)/H35</f>
+        <f t="shared" si="9"/>
         <v>0.80687293849293817</v>
       </c>
     </row>
@@ -13321,23 +13320,23 @@
         <v>7.2671231464482803E-5</v>
       </c>
       <c r="AA36" s="3">
-        <f>ABS((G36-B36)/B36)</f>
+        <f t="shared" si="5"/>
         <v>6.6239496469294688E-3</v>
       </c>
       <c r="AB36" s="3">
-        <f>ABS((J36-C36)/C36)</f>
+        <f t="shared" si="6"/>
         <v>0.48830126194962015</v>
       </c>
       <c r="AC36" s="3">
-        <f>(J36-G36)/G36</f>
+        <f t="shared" si="7"/>
         <v>0.2218468364029767</v>
       </c>
       <c r="AD36" s="3">
-        <f>(J36-D36)/D36</f>
+        <f t="shared" si="8"/>
         <v>3.0682099894731356E-2</v>
       </c>
       <c r="AE36" s="3">
-        <f>(G36+H36-J36)/H36</f>
+        <f t="shared" si="9"/>
         <v>0.57777493330599927</v>
       </c>
     </row>
@@ -13421,23 +13420,23 @@
         <v>7.2976319643203101E-5</v>
       </c>
       <c r="AA37" s="3">
-        <f>ABS((G37-B37)/B37)</f>
+        <f t="shared" si="5"/>
         <v>0.28926297119447475</v>
       </c>
       <c r="AB37" s="3">
-        <f>ABS((J37-C37)/C37)</f>
+        <f t="shared" si="6"/>
         <v>8.5329274610945596E-2</v>
       </c>
       <c r="AC37" s="3">
-        <f>(J37-G37)/G37</f>
+        <f t="shared" si="7"/>
         <v>0.21847440883997438</v>
       </c>
       <c r="AD37" s="3">
-        <f>(J37-D37)/D37</f>
+        <f t="shared" si="8"/>
         <v>4.2962348645265928E-2</v>
       </c>
       <c r="AE37" s="3">
-        <f>(G37+H37-J37)/H37</f>
+        <f t="shared" si="9"/>
         <v>0.36515634087797832</v>
       </c>
     </row>
@@ -13521,23 +13520,23 @@
         <v>7.4909243267029497E-5</v>
       </c>
       <c r="AA38" s="3">
-        <f>ABS((G38-B38)/B38)</f>
+        <f t="shared" si="5"/>
         <v>6.4072176648739551E-3</v>
       </c>
       <c r="AB38" s="3">
-        <f>ABS((J38-C38)/C38)</f>
+        <f t="shared" si="6"/>
         <v>0.48830126194962015</v>
       </c>
       <c r="AC38" s="3">
-        <f>(J38-G38)/G38</f>
+        <f t="shared" si="7"/>
         <v>0.20176724057547882</v>
       </c>
       <c r="AD38" s="3">
-        <f>(J38-D38)/D38</f>
+        <f t="shared" si="8"/>
         <v>1.6357228344497286E-2</v>
       </c>
       <c r="AE38" s="3">
-        <f>(G38+H38-J38)/H38</f>
+        <f t="shared" si="9"/>
         <v>0.60957480580160706</v>
       </c>
     </row>
@@ -13621,23 +13620,23 @@
         <v>7.2070790338329903E-5</v>
       </c>
       <c r="AA39" s="3">
-        <f>ABS((G39-B39)/B39)</f>
+        <f t="shared" si="5"/>
         <v>0.19542950797088943</v>
       </c>
       <c r="AB39" s="3">
-        <f>ABS((J39-C39)/C39)</f>
+        <f t="shared" si="6"/>
         <v>5.2926339258256447E-2</v>
       </c>
       <c r="AC39" s="3">
-        <f>(J39-G39)/G39</f>
+        <f t="shared" si="7"/>
         <v>0.20034891567699362</v>
       </c>
       <c r="AD39" s="3">
-        <f>(J39-D39)/D39</f>
+        <f t="shared" si="8"/>
         <v>6.8146371954625039E-3</v>
       </c>
       <c r="AE39" s="3">
-        <f>(G39+H39-J39)/H39</f>
+        <f t="shared" si="9"/>
         <v>0.53716476311651462</v>
       </c>
     </row>
@@ -13721,23 +13720,23 @@
         <v>7.2890048613771796E-5</v>
       </c>
       <c r="AA40" s="3">
-        <f>ABS((G40-B40)/B40)</f>
+        <f t="shared" si="5"/>
         <v>7.0892728582427952E-3</v>
       </c>
       <c r="AB40" s="3">
-        <f>ABS((J40-C40)/C40)</f>
+        <f t="shared" si="6"/>
         <v>0.34883142405947953</v>
       </c>
       <c r="AC40" s="3">
-        <f>(J40-G40)/G40</f>
+        <f t="shared" si="7"/>
         <v>0.19252458832688063</v>
       </c>
       <c r="AD40" s="3">
-        <f>(J40-D40)/D40</f>
+        <f t="shared" si="8"/>
         <v>-6.507980860759198E-2</v>
       </c>
       <c r="AE40" s="3">
-        <f>(G40+H40-J40)/H40</f>
+        <f t="shared" si="9"/>
         <v>0.76592703956462593</v>
       </c>
     </row>
@@ -13821,23 +13820,23 @@
         <v>7.3185408837161904E-5</v>
       </c>
       <c r="AA41" s="3">
-        <f>ABS((G41-B41)/B41)</f>
+        <f t="shared" si="5"/>
         <v>6.2182138333795947E-2</v>
       </c>
       <c r="AB41" s="3">
-        <f>ABS((J41-C41)/C41)</f>
+        <f t="shared" si="6"/>
         <v>4.5635918967921317E-2</v>
       </c>
       <c r="AC41" s="3">
-        <f>(J41-G41)/G41</f>
+        <f t="shared" si="7"/>
         <v>0.19135799760957614</v>
       </c>
       <c r="AD41" s="3">
-        <f>(J41-D41)/D41</f>
+        <f t="shared" si="8"/>
         <v>-2.9947178754535526E-2</v>
       </c>
       <c r="AE41" s="3">
-        <f>(G41+H41-J41)/H41</f>
+        <f t="shared" si="9"/>
         <v>0.59506435583871031</v>
       </c>
     </row>
@@ -13921,27 +13920,27 @@
         <v>7.2721595643088194E-5</v>
       </c>
       <c r="AA42" s="3">
-        <f>ABS((G42-B42)/B42)</f>
+        <f t="shared" si="5"/>
         <v>5.3089105499886371E-3</v>
       </c>
       <c r="AB42" s="3">
-        <f>ABS((J42-C42)/C42)</f>
+        <f t="shared" si="6"/>
         <v>1.7840143689792161</v>
       </c>
       <c r="AC42" s="3">
-        <f>(J42-G42)/G42</f>
+        <f t="shared" si="7"/>
         <v>0.16465022706126678</v>
       </c>
       <c r="AD42" s="3">
-        <f>(J42-D42)/D42</f>
+        <f t="shared" si="8"/>
         <v>0.16465022706126678</v>
       </c>
       <c r="AE42" s="3">
-        <f>(G42+H42-J42)/H42</f>
+        <f t="shared" si="9"/>
         <v>0.83534977293873325</v>
       </c>
     </row>
-    <row r="43" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>114</v>
       </c>
@@ -14021,23 +14020,23 @@
         <v>7.2280628955922994E-5</v>
       </c>
       <c r="AA43" s="3">
-        <f>ABS((G43-B43)/B43)</f>
+        <f t="shared" si="5"/>
         <v>3.4976276038741205E-2</v>
       </c>
       <c r="AB43" s="3">
-        <f>ABS((J43-C43)/C43)</f>
+        <f t="shared" si="6"/>
         <v>1.5701550806970379</v>
       </c>
       <c r="AC43" s="3">
-        <f>(J43-G43)/G43</f>
+        <f t="shared" si="7"/>
         <v>0.32595326215913112</v>
       </c>
       <c r="AD43" s="3">
-        <f>(J43-D43)/D43</f>
+        <f t="shared" si="8"/>
         <v>0.32595326215913112</v>
       </c>
       <c r="AE43" s="3">
-        <f>(G43+H43-J43)/H43</f>
+        <f t="shared" si="9"/>
         <v>0.67404673784086888</v>
       </c>
     </row>
@@ -14121,27 +14120,27 @@
         <v>7.3547387728467502E-5</v>
       </c>
       <c r="AA44" s="3">
-        <f>ABS((G44-B44)/B44)</f>
+        <f t="shared" si="5"/>
         <v>3.2605517901382823E-2</v>
       </c>
       <c r="AB44" s="3">
-        <f>ABS((J44-C44)/C44)</f>
+        <f t="shared" si="6"/>
         <v>0.42523850721606371</v>
       </c>
       <c r="AC44" s="3">
-        <f>(J44-G44)/G44</f>
+        <f t="shared" si="7"/>
         <v>0.16394129245519057</v>
       </c>
       <c r="AD44" s="3">
-        <f>(J44-D44)/D44</f>
+        <f t="shared" si="8"/>
         <v>2.1310328244655424E-2</v>
       </c>
       <c r="AE44" s="3">
-        <f>(G44+H44-J44)/H44</f>
+        <f t="shared" si="9"/>
         <v>0.65252681475877028</v>
       </c>
     </row>
-    <row r="45" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>103</v>
       </c>
@@ -14221,23 +14220,23 @@
         <v>7.23849952919408E-5</v>
       </c>
       <c r="AA45" s="3">
-        <f>ABS((G45-B45)/B45)</f>
+        <f t="shared" si="5"/>
         <v>1.5581756833611106E-2</v>
       </c>
       <c r="AB45" s="3">
-        <f>ABS((J45-C45)/C45)</f>
+        <f t="shared" si="6"/>
         <v>1.5568228140416167</v>
       </c>
       <c r="AC45" s="3">
-        <f>(J45-G45)/G45</f>
+        <f t="shared" si="7"/>
         <v>0.35396980436262077</v>
       </c>
       <c r="AD45" s="3">
-        <f>(J45-D45)/D45</f>
+        <f t="shared" si="8"/>
         <v>0.35396980436262077</v>
       </c>
       <c r="AE45" s="3">
-        <f>(G45+H45-J45)/H45</f>
+        <f t="shared" si="9"/>
         <v>0.64603019563737929</v>
       </c>
     </row>
@@ -14321,27 +14320,27 @@
         <v>7.3587958468124203E-5</v>
       </c>
       <c r="AA46" s="3">
-        <f>ABS((G46-B46)/B46)</f>
+        <f t="shared" si="5"/>
         <v>7.6645686455947867E-2</v>
       </c>
       <c r="AB46" s="3">
-        <f>ABS((J46-C46)/C46)</f>
+        <f t="shared" si="6"/>
         <v>0.50992937662659488</v>
       </c>
       <c r="AC46" s="3">
-        <f>(J46-G46)/G46</f>
+        <f t="shared" si="7"/>
         <v>0.16374308178664332</v>
       </c>
       <c r="AD46" s="3">
-        <f>(J46-D46)/D46</f>
+        <f t="shared" si="8"/>
         <v>0.14624647751217557</v>
       </c>
       <c r="AE46" s="3">
-        <f>(G46+H46-J46)/H46</f>
+        <f t="shared" si="9"/>
         <v>0.65673275695732114</v>
       </c>
     </row>
-    <row r="47" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>95</v>
       </c>
@@ -14421,23 +14420,23 @@
         <v>7.26706348359584E-5</v>
       </c>
       <c r="AA47" s="3">
-        <f>ABS((G47-B47)/B47)</f>
+        <f t="shared" si="5"/>
         <v>1.2634808342869869E-3</v>
       </c>
       <c r="AB47" s="3">
-        <f>ABS((J47-C47)/C47)</f>
+        <f t="shared" si="6"/>
         <v>0.87613528278422048</v>
       </c>
       <c r="AC47" s="3">
-        <f>(J47-G47)/G47</f>
+        <f t="shared" si="7"/>
         <v>-6.5177265889135695E-3</v>
       </c>
       <c r="AD47" s="3">
-        <f>(J47-D47)/D47</f>
+        <f t="shared" si="8"/>
         <v>-7.0881796769297466E-3</v>
       </c>
       <c r="AE47" s="3">
-        <f>(G47+H47-J47)/H47</f>
+        <f t="shared" si="9"/>
         <v>1.0567185870302176</v>
       </c>
     </row>
@@ -14521,27 +14520,27 @@
         <v>7.1977563493419398E-5</v>
       </c>
       <c r="AA48" s="3">
-        <f>ABS((G48-B48)/B48)</f>
+        <f t="shared" si="5"/>
         <v>3.1654773166738551E-2</v>
       </c>
       <c r="AB48" s="3">
-        <f>ABS((J48-C48)/C48)</f>
+        <f t="shared" si="6"/>
         <v>0.42523850721606371</v>
       </c>
       <c r="AC48" s="3">
-        <f>(J48-G48)/G48</f>
+        <f t="shared" si="7"/>
         <v>0.16068978949145366</v>
       </c>
       <c r="AD48" s="3">
-        <f>(J48-D48)/D48</f>
+        <f t="shared" si="8"/>
         <v>1.880602944762496E-2</v>
       </c>
       <c r="AE48" s="3">
-        <f>(G48+H48-J48)/H48</f>
+        <f t="shared" si="9"/>
         <v>0.65846427796013718</v>
       </c>
     </row>
-    <row r="49" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>101</v>
       </c>
@@ -14621,23 +14620,23 @@
         <v>7.2462709795217893E-5</v>
       </c>
       <c r="AA49" s="3">
-        <f>ABS((G49-B49)/B49)</f>
+        <f t="shared" si="5"/>
         <v>1.4017081572851713E-2</v>
       </c>
       <c r="AB49" s="3">
-        <f>ABS((J49-C49)/C49)</f>
+        <f t="shared" si="6"/>
         <v>1.201771698547238</v>
       </c>
       <c r="AC49" s="3">
-        <f>(J49-G49)/G49</f>
+        <f t="shared" si="7"/>
         <v>0.35484603732874642</v>
       </c>
       <c r="AD49" s="3">
-        <f>(J49-D49)/D49</f>
+        <f t="shared" si="8"/>
         <v>0.35484603732874642</v>
       </c>
       <c r="AE49" s="3">
-        <f>(G49+H49-J49)/H49</f>
+        <f t="shared" si="9"/>
         <v>0.64515396267125358</v>
       </c>
     </row>
@@ -14721,23 +14720,23 @@
         <v>7.2811737481970299E-5</v>
       </c>
       <c r="AA50" s="3">
-        <f>ABS((G50-B50)/B50)</f>
+        <f t="shared" si="5"/>
         <v>0.5512686936434138</v>
       </c>
       <c r="AB50" s="3">
-        <f>ABS((J50-C50)/C50)</f>
+        <f t="shared" si="6"/>
         <v>0.46468903762736496</v>
       </c>
       <c r="AC50" s="3">
-        <f>(J50-G50)/G50</f>
+        <f t="shared" si="7"/>
         <v>0.15927011779034791</v>
       </c>
       <c r="AD50" s="3">
-        <f>(J50-D50)/D50</f>
+        <f t="shared" si="8"/>
         <v>5.683362900998104E-2</v>
       </c>
       <c r="AE50" s="3">
-        <f>(G50+H50-J50)/H50</f>
+        <f t="shared" si="9"/>
         <v>-0.179808549539758</v>
       </c>
     </row>
@@ -14821,23 +14820,23 @@
         <v>7.1820119046606096E-5</v>
       </c>
       <c r="AA51" s="3">
-        <f>ABS((G51-B51)/B51)</f>
+        <f t="shared" si="5"/>
         <v>2.6281182553792568E-2</v>
       </c>
       <c r="AB51" s="3">
-        <f>ABS((J51-C51)/C51)</f>
+        <f t="shared" si="6"/>
         <v>0.19030020671732004</v>
       </c>
       <c r="AC51" s="3">
-        <f>(J51-G51)/G51</f>
+        <f t="shared" si="7"/>
         <v>0.15326619266906613</v>
       </c>
       <c r="AD51" s="3">
-        <f>(J51-D51)/D51</f>
+        <f t="shared" si="8"/>
         <v>3.8158657049576709E-2</v>
       </c>
       <c r="AE51" s="3">
-        <f>(G51+H51-J51)/H51</f>
+        <f t="shared" si="9"/>
         <v>0.59498212029898068</v>
       </c>
     </row>
@@ -14921,23 +14920,23 @@
         <v>7.2293994890060194E-5</v>
       </c>
       <c r="AA52" s="3">
-        <f>ABS((G52-B52)/B52)</f>
+        <f t="shared" si="5"/>
         <v>1.2421809687192645E-2</v>
       </c>
       <c r="AB52" s="3">
-        <f>ABS((J52-C52)/C52)</f>
+        <f t="shared" si="6"/>
         <v>0.26960495056135542</v>
       </c>
       <c r="AC52" s="3">
-        <f>(J52-G52)/G52</f>
+        <f t="shared" si="7"/>
         <v>0.14188898048571713</v>
       </c>
       <c r="AD52" s="3">
-        <f>(J52-D52)/D52</f>
+        <f t="shared" si="8"/>
         <v>-0.4304405980119328</v>
       </c>
       <c r="AE52" s="3">
-        <f>(G52+H52-J52)/H52</f>
+        <f t="shared" si="9"/>
         <v>0.87164726952006089</v>
       </c>
     </row>
@@ -15021,23 +15020,23 @@
         <v>7.2984694270417094E-5</v>
       </c>
       <c r="AA53" s="3">
-        <f>ABS((G53-B53)/B53)</f>
+        <f t="shared" si="5"/>
         <v>1.2763834973325946E-2</v>
       </c>
       <c r="AB53" s="3">
-        <f>ABS((J53-C53)/C53)</f>
+        <f t="shared" si="6"/>
         <v>0.34956642796363424</v>
       </c>
       <c r="AC53" s="3">
-        <f>(J53-G53)/G53</f>
+        <f t="shared" si="7"/>
         <v>0.13787286139105281</v>
       </c>
       <c r="AD53" s="3">
-        <f>(J53-D53)/D53</f>
+        <f t="shared" si="8"/>
         <v>0.13424043247226322</v>
       </c>
       <c r="AE53" s="3">
-        <f>(G53+H53-J53)/H53</f>
+        <f t="shared" si="9"/>
         <v>0.61252731014095496</v>
       </c>
     </row>
@@ -15121,23 +15120,23 @@
         <v>7.1871603722684004E-5</v>
       </c>
       <c r="AA54" s="3">
-        <f>ABS((G54-B54)/B54)</f>
+        <f t="shared" si="5"/>
         <v>4.0592056759347031E-4</v>
       </c>
       <c r="AB54" s="3">
-        <f>ABS((J54-C54)/C54)</f>
+        <f t="shared" si="6"/>
         <v>1.7429400719411894</v>
       </c>
       <c r="AC54" s="3">
-        <f>(J54-G54)/G54</f>
+        <f t="shared" si="7"/>
         <v>0.13691818325160579</v>
       </c>
       <c r="AD54" s="3">
-        <f>(J54-D54)/D54</f>
+        <f t="shared" si="8"/>
         <v>0.13691818325160579</v>
       </c>
       <c r="AE54" s="3">
-        <f>(G54+H54-J54)/H54</f>
+        <f t="shared" si="9"/>
         <v>0.86308181674839424</v>
       </c>
     </row>
@@ -15221,23 +15220,23 @@
         <v>7.3502458690200001E-5</v>
       </c>
       <c r="AA55" s="3">
-        <f>ABS((G55-B55)/B55)</f>
+        <f t="shared" si="5"/>
         <v>3.2319875835658401E-2</v>
       </c>
       <c r="AB55" s="3">
-        <f>ABS((J55-C55)/C55)</f>
+        <f t="shared" si="6"/>
         <v>0.4482790670551719</v>
       </c>
       <c r="AC55" s="3">
-        <f>(J55-G55)/G55</f>
+        <f t="shared" si="7"/>
         <v>0.13625394147652944</v>
       </c>
       <c r="AD55" s="3">
-        <f>(J55-D55)/D55</f>
+        <f t="shared" si="8"/>
         <v>0.13625394147652944</v>
       </c>
       <c r="AE55" s="3">
-        <f>(G55+H55-J55)/H55</f>
+        <f t="shared" si="9"/>
         <v>0.86374605852347053</v>
       </c>
     </row>
@@ -15321,23 +15320,23 @@
         <v>7.2486189310438904E-5</v>
       </c>
       <c r="AA56" s="3">
-        <f>ABS((G56-B56)/B56)</f>
+        <f t="shared" si="5"/>
         <v>1.5557065121846608E-2</v>
       </c>
       <c r="AB56" s="3">
-        <f>ABS((J56-C56)/C56)</f>
+        <f t="shared" si="6"/>
         <v>0.3077082189307529</v>
       </c>
       <c r="AC56" s="3">
-        <f>(J56-G56)/G56</f>
+        <f t="shared" si="7"/>
         <v>0.132027905610553</v>
       </c>
       <c r="AD56" s="3">
-        <f>(J56-D56)/D56</f>
+        <f t="shared" si="8"/>
         <v>-7.3934364038106937E-2</v>
       </c>
       <c r="AE56" s="3">
-        <f>(G56+H56-J56)/H56</f>
+        <f t="shared" si="9"/>
         <v>0.8694002293341363</v>
       </c>
     </row>
@@ -15421,23 +15420,23 @@
         <v>7.2929789894260398E-5</v>
       </c>
       <c r="AA57" s="3">
-        <f>ABS((G57-B57)/B57)</f>
+        <f t="shared" si="5"/>
         <v>1.6767542334315957E-2</v>
       </c>
       <c r="AB57" s="3">
-        <f>ABS((J57-C57)/C57)</f>
+        <f t="shared" si="6"/>
         <v>0.61619465816551067</v>
       </c>
       <c r="AC57" s="3">
-        <f>(J57-G57)/G57</f>
+        <f t="shared" si="7"/>
         <v>0.12439718268810616</v>
       </c>
       <c r="AD57" s="3">
-        <f>(J57-D57)/D57</f>
+        <f t="shared" si="8"/>
         <v>0.12046606502562064</v>
       </c>
       <c r="AE57" s="3">
-        <f>(G57+H57-J57)/H57</f>
+        <f t="shared" si="9"/>
         <v>0.53904990345653003</v>
       </c>
     </row>
@@ -15521,23 +15520,23 @@
         <v>7.0268833951558904E-5</v>
       </c>
       <c r="AA58" s="3">
-        <f>ABS((G58-B58)/B58)</f>
+        <f t="shared" si="5"/>
         <v>2.2171145063731138E-2</v>
       </c>
       <c r="AB58" s="3">
-        <f>ABS((J58-C58)/C58)</f>
+        <f t="shared" si="6"/>
         <v>2.8350095913103078E-2</v>
       </c>
       <c r="AC58" s="3">
-        <f>(J58-G58)/G58</f>
+        <f t="shared" si="7"/>
         <v>0.12054023692844976</v>
       </c>
       <c r="AD58" s="3">
-        <f>(J58-D58)/D58</f>
+        <f t="shared" si="8"/>
         <v>-0.42284441306856207</v>
       </c>
       <c r="AE58" s="3">
-        <f>(G58+H58-J58)/H58</f>
+        <f t="shared" si="9"/>
         <v>0.88822838769345058</v>
       </c>
     </row>
@@ -15621,23 +15620,23 @@
         <v>7.2012087912298698E-5</v>
       </c>
       <c r="AA59" s="3">
-        <f>ABS((G59-B59)/B59)</f>
+        <f t="shared" si="5"/>
         <v>9.1871536173576795E-2</v>
       </c>
       <c r="AB59" s="3">
-        <f>ABS((J59-C59)/C59)</f>
+        <f t="shared" si="6"/>
         <v>0.25441938244776591</v>
       </c>
       <c r="AC59" s="3">
-        <f>(J59-G59)/G59</f>
+        <f t="shared" si="7"/>
         <v>0.11635214829770382</v>
       </c>
       <c r="AD59" s="3">
-        <f>(J59-D59)/D59</f>
+        <f t="shared" si="8"/>
         <v>-0.17669439789996624</v>
       </c>
       <c r="AE59" s="3">
-        <f>(G59+H59-J59)/H59</f>
+        <f t="shared" si="9"/>
         <v>0.84995877436763123</v>
       </c>
     </row>
@@ -15721,23 +15720,23 @@
         <v>7.2133821959141601E-5</v>
       </c>
       <c r="AA60" s="3">
-        <f>ABS((G60-B60)/B60)</f>
+        <f t="shared" si="5"/>
         <v>2.913122852301967E-3</v>
       </c>
       <c r="AB60" s="3">
-        <f>ABS((J60-C60)/C60)</f>
+        <f t="shared" si="6"/>
         <v>0.33646243083258848</v>
       </c>
       <c r="AC60" s="3">
-        <f>(J60-G60)/G60</f>
+        <f t="shared" si="7"/>
         <v>0.11250385499508762</v>
       </c>
       <c r="AD60" s="3">
-        <f>(J60-D60)/D60</f>
+        <f t="shared" si="8"/>
         <v>-2.833260146615104E-2</v>
       </c>
       <c r="AE60" s="3">
-        <f>(G60+H60-J60)/H60</f>
+        <f t="shared" si="9"/>
         <v>0.72600472155774742</v>
       </c>
     </row>
@@ -15821,23 +15820,23 @@
         <v>7.1830720116849894E-5</v>
       </c>
       <c r="AA61" s="3">
-        <f>ABS((G61-B61)/B61)</f>
+        <f t="shared" si="5"/>
         <v>1.3484398388752038E-3</v>
       </c>
       <c r="AB61" s="3">
-        <f>ABS((J61-C61)/C61)</f>
+        <f t="shared" si="6"/>
         <v>0.79242181372389331</v>
       </c>
       <c r="AC61" s="3">
-        <f>(J61-G61)/G61</f>
+        <f t="shared" si="7"/>
         <v>0.1059231017334664</v>
       </c>
       <c r="AD61" s="3">
-        <f>(J61-D61)/D61</f>
+        <f t="shared" si="8"/>
         <v>3.7214633988826934E-2</v>
       </c>
       <c r="AE61" s="3">
-        <f>(G61+H61-J61)/H61</f>
+        <f t="shared" si="9"/>
         <v>0.82890652270292775</v>
       </c>
     </row>
@@ -15921,27 +15920,27 @@
         <v>7.3782553954515606E-5</v>
       </c>
       <c r="AA62" s="3">
-        <f>ABS((G62-B62)/B62)</f>
+        <f t="shared" si="5"/>
         <v>4.7251503811098043E-3</v>
       </c>
       <c r="AB62" s="3">
-        <f>ABS((J62-C62)/C62)</f>
+        <f t="shared" si="6"/>
         <v>0.16860223039851824</v>
       </c>
       <c r="AC62" s="3">
-        <f>(J62-G62)/G62</f>
+        <f t="shared" si="7"/>
         <v>9.7149681859396042E-2</v>
       </c>
       <c r="AD62" s="3">
-        <f>(J62-D62)/D62</f>
+        <f t="shared" si="8"/>
         <v>-7.8092054892907325E-2</v>
       </c>
       <c r="AE62" s="3">
-        <f>(G62+H62-J62)/H62</f>
+        <f t="shared" si="9"/>
         <v>0.74343659003708618</v>
       </c>
     </row>
-    <row r="63" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>116</v>
       </c>
@@ -16021,23 +16020,23 @@
         <v>7.3643095674924498E-5</v>
       </c>
       <c r="AA63" s="3">
-        <f>ABS((G63-B63)/B63)</f>
+        <f t="shared" si="5"/>
         <v>5.2284445304838813E-3</v>
       </c>
       <c r="AB63" s="3">
-        <f>ABS((J63-C63)/C63)</f>
+        <f t="shared" si="6"/>
         <v>0.34364134734708301</v>
       </c>
       <c r="AC63" s="3">
-        <f>(J63-G63)/G63</f>
+        <f t="shared" si="7"/>
         <v>3.8803863892712162E-2</v>
       </c>
       <c r="AD63" s="3">
-        <f>(J63-D63)/D63</f>
+        <f t="shared" si="8"/>
         <v>-0.15380019768822711</v>
       </c>
       <c r="AE63" s="3">
-        <f>(G63+H63-J63)/H63</f>
+        <f t="shared" si="9"/>
         <v>0.94374071538786297</v>
       </c>
     </row>
@@ -16121,27 +16120,27 @@
         <v>7.0810056058689898E-5</v>
       </c>
       <c r="AA64" s="3">
-        <f>ABS((G64-B64)/B64)</f>
+        <f t="shared" si="5"/>
         <v>3.5190396310564765E-3</v>
       </c>
       <c r="AB64" s="3">
-        <f>ABS((J64-C64)/C64)</f>
+        <f t="shared" si="6"/>
         <v>0.26477448571894474</v>
       </c>
       <c r="AC64" s="3">
-        <f>(J64-G64)/G64</f>
+        <f t="shared" si="7"/>
         <v>9.6660937360660393E-2</v>
       </c>
       <c r="AD64" s="3">
-        <f>(J64-D64)/D64</f>
+        <f t="shared" si="8"/>
         <v>-0.43802371641751914</v>
       </c>
       <c r="AE64" s="3">
-        <f>(G64+H64-J64)/H64</f>
+        <f t="shared" si="9"/>
         <v>0.90897123440900551</v>
       </c>
     </row>
-    <row r="65" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>109</v>
       </c>
@@ -16221,23 +16220,23 @@
         <v>7.2094138886313804E-5</v>
       </c>
       <c r="AA65" s="3">
-        <f>ABS((G65-B65)/B65)</f>
+        <f t="shared" si="5"/>
         <v>5.2148365545078316E-3</v>
       </c>
       <c r="AB65" s="3">
-        <f>ABS((J65-C65)/C65)</f>
+        <f t="shared" si="6"/>
         <v>0.45706507609349911</v>
       </c>
       <c r="AC65" s="3">
-        <f>(J65-G65)/G65</f>
+        <f t="shared" si="7"/>
         <v>2.2233951666108333E-2</v>
       </c>
       <c r="AD65" s="3">
-        <f>(J65-D65)/D65</f>
+        <f t="shared" si="8"/>
         <v>-0.19972610921718606</v>
       </c>
       <c r="AE65" s="3">
-        <f>(G65+H65-J65)/H65</f>
+        <f t="shared" si="9"/>
         <v>0.96809469354770272</v>
       </c>
     </row>
@@ -16321,27 +16320,27 @@
         <v>7.1755021053831997E-5</v>
       </c>
       <c r="AA66" s="3">
-        <f>ABS((G66-B66)/B66)</f>
+        <f t="shared" ref="AA66:AA97" si="10">ABS((G66-B66)/B66)</f>
         <v>9.7819583003973011E-3</v>
       </c>
       <c r="AB66" s="3">
-        <f>ABS((J66-C66)/C66)</f>
+        <f t="shared" ref="AB66:AB97" si="11">ABS((J66-C66)/C66)</f>
         <v>0.33646243083258848</v>
       </c>
       <c r="AC66" s="3">
-        <f>(J66-G66)/G66</f>
+        <f t="shared" ref="AC66:AC97" si="12">(J66-G66)/G66</f>
         <v>9.6489674861574296E-2</v>
       </c>
       <c r="AD66" s="3">
-        <f>(J66-D66)/D66</f>
+        <f t="shared" ref="AD66:AD97" si="13">(J66-D66)/D66</f>
         <v>-4.0570992683419904E-2</v>
       </c>
       <c r="AE66" s="3">
-        <f>(G66+H66-J66)/H66</f>
+        <f t="shared" ref="AE66:AE97" si="14">(G66+H66-J66)/H66</f>
         <v>0.76157406410021622</v>
       </c>
     </row>
-    <row r="67" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>117</v>
       </c>
@@ -16421,23 +16420,23 @@
         <v>7.4337629484944005E-5</v>
       </c>
       <c r="AA67" s="3">
-        <f>ABS((G67-B67)/B67)</f>
+        <f t="shared" si="10"/>
         <v>3.4351631427255773E-2</v>
       </c>
       <c r="AB67" s="3">
-        <f>ABS((J67-C67)/C67)</f>
+        <f t="shared" si="11"/>
         <v>0.43612608942154879</v>
       </c>
       <c r="AC67" s="3">
-        <f>(J67-G67)/G67</f>
+        <f t="shared" si="12"/>
         <v>1.0287097227109332E-2</v>
       </c>
       <c r="AD67" s="3">
-        <f>(J67-D67)/D67</f>
+        <f t="shared" si="13"/>
         <v>-0.2269977198628009</v>
       </c>
       <c r="AE67" s="3">
-        <f>(G67+H67-J67)/H67</f>
+        <f t="shared" si="14"/>
         <v>0.98364611083565734</v>
       </c>
     </row>
@@ -16521,27 +16520,27 @@
         <v>7.2988579631783E-5</v>
       </c>
       <c r="AA68" s="3">
-        <f>ABS((G68-B68)/B68)</f>
+        <f t="shared" si="10"/>
         <v>5.4636631306831983E-3</v>
       </c>
       <c r="AB68" s="3">
-        <f>ABS((J68-C68)/C68)</f>
+        <f t="shared" si="11"/>
         <v>0.81364302400051336</v>
       </c>
       <c r="AC68" s="3">
-        <f>(J68-G68)/G68</f>
+        <f t="shared" si="12"/>
         <v>9.2846158310120705E-2</v>
       </c>
       <c r="AD68" s="3">
-        <f>(J68-D68)/D68</f>
+        <f t="shared" si="13"/>
         <v>2.6691951581628005E-2</v>
       </c>
       <c r="AE68" s="3">
-        <f>(G68+H68-J68)/H68</f>
+        <f t="shared" si="14"/>
         <v>0.85878782616122262</v>
       </c>
     </row>
-    <row r="69" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>115</v>
       </c>
@@ -16621,23 +16620,23 @@
         <v>7.2008195274975097E-5</v>
       </c>
       <c r="AA69" s="3">
-        <f>ABS((G69-B69)/B69)</f>
+        <f t="shared" si="10"/>
         <v>6.1395026356343644E-3</v>
       </c>
       <c r="AB69" s="3">
-        <f>ABS((J69-C69)/C69)</f>
+        <f t="shared" si="11"/>
         <v>0.32305267875051208</v>
       </c>
       <c r="AC69" s="3">
-        <f>(J69-G69)/G69</f>
+        <f t="shared" si="12"/>
         <v>3.9974120580589988E-2</v>
       </c>
       <c r="AD69" s="3">
-        <f>(J69-D69)/D69</f>
+        <f t="shared" si="13"/>
         <v>-0.12444953502537344</v>
       </c>
       <c r="AE69" s="3">
-        <f>(G69+H69-J69)/H69</f>
+        <f t="shared" si="14"/>
         <v>0.9570021478692986</v>
       </c>
     </row>
@@ -16721,23 +16720,23 @@
         <v>7.4216979555785602E-5</v>
       </c>
       <c r="AA70" s="3">
-        <f>ABS((G70-B70)/B70)</f>
+        <f t="shared" si="10"/>
         <v>1.8569324077480423E-3</v>
       </c>
       <c r="AB70" s="3">
-        <f>ABS((J70-C70)/C70)</f>
+        <f t="shared" si="11"/>
         <v>0.8362478687556566</v>
       </c>
       <c r="AC70" s="3">
-        <f>(J70-G70)/G70</f>
+        <f t="shared" si="12"/>
         <v>9.2057435484007813E-2</v>
       </c>
       <c r="AD70" s="3">
-        <f>(J70-D70)/D70</f>
+        <f t="shared" si="13"/>
         <v>1.5256864405905957E-2</v>
       </c>
       <c r="AE70" s="3">
-        <f>(G70+H70-J70)/H70</f>
+        <f t="shared" si="14"/>
         <v>0.86856963504526263</v>
       </c>
     </row>
@@ -16821,23 +16820,23 @@
         <v>7.1628790465183502E-5</v>
       </c>
       <c r="AA71" s="3">
-        <f>ABS((G71-B71)/B71)</f>
+        <f t="shared" si="10"/>
         <v>1.0910536787923031E-2</v>
       </c>
       <c r="AB71" s="3">
-        <f>ABS((J71-C71)/C71)</f>
+        <f t="shared" si="11"/>
         <v>0.15683002789785572</v>
       </c>
       <c r="AC71" s="3">
-        <f>(J71-G71)/G71</f>
+        <f t="shared" si="12"/>
         <v>9.0839775807634512E-2</v>
       </c>
       <c r="AD71" s="3">
-        <f>(J71-D71)/D71</f>
+        <f t="shared" si="13"/>
         <v>-7.6366125339629706E-2</v>
       </c>
       <c r="AE71" s="3">
-        <f>(G71+H71-J71)/H71</f>
+        <f t="shared" si="14"/>
         <v>0.75110984763231614</v>
       </c>
     </row>
@@ -16921,23 +16920,23 @@
         <v>7.8893281170167002E-5</v>
       </c>
       <c r="AA72" s="3">
-        <f>ABS((G72-B72)/B72)</f>
+        <f t="shared" si="10"/>
         <v>8.697497301419407E-3</v>
       </c>
       <c r="AB72" s="3">
-        <f>ABS((J72-C72)/C72)</f>
+        <f t="shared" si="11"/>
         <v>0.25669078014486013</v>
       </c>
       <c r="AC72" s="3">
-        <f>(J72-G72)/G72</f>
+        <f t="shared" si="12"/>
         <v>8.8485774087355085E-2</v>
       </c>
       <c r="AD72" s="3">
-        <f>(J72-D72)/D72</f>
+        <f t="shared" si="13"/>
         <v>-6.5940515686199186E-2</v>
       </c>
       <c r="AE72" s="3">
-        <f>(G72+H72-J72)/H72</f>
+        <f t="shared" si="14"/>
         <v>0.7885914452832492</v>
       </c>
     </row>
@@ -17021,23 +17020,23 @@
         <v>7.2553368227090605E-5</v>
       </c>
       <c r="AA73" s="3">
-        <f>ABS((G73-B73)/B73)</f>
+        <f t="shared" si="10"/>
         <v>0.3409043730575006</v>
       </c>
       <c r="AB73" s="3">
-        <f>ABS((J73-C73)/C73)</f>
+        <f t="shared" si="11"/>
         <v>5.7165485398487655E-2</v>
       </c>
       <c r="AC73" s="3">
-        <f>(J73-G73)/G73</f>
+        <f t="shared" si="12"/>
         <v>8.347895857950513E-2</v>
       </c>
       <c r="AD73" s="3">
-        <f>(J73-D73)/D73</f>
+        <f t="shared" si="13"/>
         <v>-4.6020917956591419E-2</v>
       </c>
       <c r="AE73" s="3">
-        <f>(G73+H73-J73)/H73</f>
+        <f t="shared" si="14"/>
         <v>0.70420620132144207</v>
       </c>
     </row>
@@ -17121,23 +17120,23 @@
         <v>7.1129572461359203E-5</v>
       </c>
       <c r="AA74" s="3">
-        <f>ABS((G74-B74)/B74)</f>
+        <f t="shared" si="10"/>
         <v>3.5470347328810478E-2</v>
       </c>
       <c r="AB74" s="3">
-        <f>ABS((J74-C74)/C74)</f>
+        <f t="shared" si="11"/>
         <v>0.20004571391475023</v>
       </c>
       <c r="AC74" s="3">
-        <f>(J74-G74)/G74</f>
+        <f t="shared" si="12"/>
         <v>8.1624740098581922E-2</v>
       </c>
       <c r="AD74" s="3">
-        <f>(J74-D74)/D74</f>
+        <f t="shared" si="13"/>
         <v>-8.3626377622911197E-2</v>
       </c>
       <c r="AE74" s="3">
-        <f>(G74+H74-J74)/H74</f>
+        <f t="shared" si="14"/>
         <v>0.80038696902618811</v>
       </c>
     </row>
@@ -17221,23 +17220,23 @@
         <v>7.2392540459986695E-5</v>
       </c>
       <c r="AA75" s="3">
-        <f>ABS((G75-B75)/B75)</f>
+        <f t="shared" si="10"/>
         <v>8.1115738825062636E-2</v>
       </c>
       <c r="AB75" s="3">
-        <f>ABS((J75-C75)/C75)</f>
+        <f t="shared" si="11"/>
         <v>0.24851216590641556</v>
       </c>
       <c r="AC75" s="3">
-        <f>(J75-G75)/G75</f>
+        <f t="shared" si="12"/>
         <v>8.0660762556788446E-2</v>
       </c>
       <c r="AD75" s="3">
-        <f>(J75-D75)/D75</f>
+        <f t="shared" si="13"/>
         <v>-0.20536688468998071</v>
       </c>
       <c r="AE75" s="3">
-        <f>(G75+H75-J75)/H75</f>
+        <f t="shared" si="14"/>
         <v>0.89669526092348284</v>
       </c>
     </row>
@@ -17321,23 +17320,23 @@
         <v>7.3019902629312101E-5</v>
       </c>
       <c r="AA76" s="3">
-        <f>ABS((G76-B76)/B76)</f>
+        <f t="shared" si="10"/>
         <v>9.4233760371539452E-2</v>
       </c>
       <c r="AB76" s="3">
-        <f>ABS((J76-C76)/C76)</f>
+        <f t="shared" si="11"/>
         <v>0.58874516858441228</v>
       </c>
       <c r="AC76" s="3">
-        <f>(J76-G76)/G76</f>
+        <f t="shared" si="12"/>
         <v>7.8445114247938444E-2</v>
       </c>
       <c r="AD76" s="3">
-        <f>(J76-D76)/D76</f>
+        <f t="shared" si="13"/>
         <v>6.5752850610607774E-2</v>
       </c>
       <c r="AE76" s="3">
-        <f>(G76+H76-J76)/H76</f>
+        <f t="shared" si="14"/>
         <v>0.42693838784977711</v>
       </c>
     </row>
@@ -17421,23 +17420,23 @@
         <v>7.3089686338789693E-5</v>
       </c>
       <c r="AA77" s="3">
-        <f>ABS((G77-B77)/B77)</f>
+        <f t="shared" si="10"/>
         <v>1.4527034921387212E-2</v>
       </c>
       <c r="AB77" s="3">
-        <f>ABS((J77-C77)/C77)</f>
+        <f t="shared" si="11"/>
         <v>0.49580023345627389</v>
       </c>
       <c r="AC77" s="3">
-        <f>(J77-G77)/G77</f>
+        <f t="shared" si="12"/>
         <v>7.8330569272953315E-2</v>
       </c>
       <c r="AD77" s="3">
-        <f>(J77-D77)/D77</f>
+        <f t="shared" si="13"/>
         <v>7.8330569272953315E-2</v>
       </c>
       <c r="AE77" s="3">
-        <f>(G77+H77-J77)/H77</f>
+        <f t="shared" si="14"/>
         <v>0.92166943072704666</v>
       </c>
     </row>
@@ -17521,23 +17520,23 @@
         <v>7.2164264565799304E-5</v>
       </c>
       <c r="AA78" s="3">
-        <f>ABS((G78-B78)/B78)</f>
+        <f t="shared" si="10"/>
         <v>9.2240567486970553E-3</v>
       </c>
       <c r="AB78" s="3">
-        <f>ABS((J78-C78)/C78)</f>
+        <f t="shared" si="11"/>
         <v>0.31343741579685763</v>
       </c>
       <c r="AC78" s="3">
-        <f>(J78-G78)/G78</f>
+        <f t="shared" si="12"/>
         <v>7.6114766065397479E-2</v>
       </c>
       <c r="AD78" s="3">
-        <f>(J78-D78)/D78</f>
+        <f t="shared" si="13"/>
         <v>-0.12882422187745737</v>
       </c>
       <c r="AE78" s="3">
-        <f>(G78+H78-J78)/H78</f>
+        <f t="shared" si="14"/>
         <v>0.88643195682191078</v>
       </c>
     </row>
@@ -17621,23 +17620,23 @@
         <v>7.2011840529739803E-5</v>
       </c>
       <c r="AA79" s="3">
-        <f>ABS((G79-B79)/B79)</f>
+        <f t="shared" si="10"/>
         <v>1.4648874017678566E-2</v>
       </c>
       <c r="AB79" s="3">
-        <f>ABS((J79-C79)/C79)</f>
+        <f t="shared" si="11"/>
         <v>0.84989518134434827</v>
       </c>
       <c r="AC79" s="3">
-        <f>(J79-G79)/G79</f>
+        <f t="shared" si="12"/>
         <v>7.5551408709102846E-2</v>
       </c>
       <c r="AD79" s="3">
-        <f>(J79-D79)/D79</f>
+        <f t="shared" si="13"/>
         <v>-8.1850674324690422E-3</v>
       </c>
       <c r="AE79" s="3">
-        <f>(G79+H79-J79)/H79</f>
+        <f t="shared" si="14"/>
         <v>0.88366673528254303</v>
       </c>
     </row>
@@ -17721,23 +17720,23 @@
         <v>7.2905000706668903E-5</v>
       </c>
       <c r="AA80" s="3">
-        <f>ABS((G80-B80)/B80)</f>
+        <f t="shared" si="10"/>
         <v>2.6898608553355303E-2</v>
       </c>
       <c r="AB80" s="3">
-        <f>ABS((J80-C80)/C80)</f>
+        <f t="shared" si="11"/>
         <v>1.0939669085277976E-2</v>
       </c>
       <c r="AC80" s="3">
-        <f>(J80-G80)/G80</f>
+        <f t="shared" si="12"/>
         <v>7.4174941888661028E-2</v>
       </c>
       <c r="AD80" s="3">
-        <f>(J80-D80)/D80</f>
+        <f t="shared" si="13"/>
         <v>-0.43587377496066304</v>
       </c>
       <c r="AE80" s="3">
-        <f>(G80+H80-J80)/H80</f>
+        <f t="shared" si="14"/>
         <v>0.92829767973843391</v>
       </c>
     </row>
@@ -17821,23 +17820,23 @@
         <v>7.2608214395586401E-5</v>
       </c>
       <c r="AA81" s="3">
-        <f>ABS((G81-B81)/B81)</f>
+        <f t="shared" si="10"/>
         <v>5.7117645772696249E-2</v>
       </c>
       <c r="AB81" s="3">
-        <f>ABS((J81-C81)/C81)</f>
+        <f t="shared" si="11"/>
         <v>5.8042231120450483E-2</v>
       </c>
       <c r="AC81" s="3">
-        <f>(J81-G81)/G81</f>
+        <f t="shared" si="12"/>
         <v>6.8082625410554667E-2</v>
       </c>
       <c r="AD81" s="3">
-        <f>(J81-D81)/D81</f>
+        <f t="shared" si="13"/>
         <v>-0.44656321349900263</v>
       </c>
       <c r="AE81" s="3">
-        <f>(G81+H81-J81)/H81</f>
+        <f t="shared" si="14"/>
         <v>0.93396077922531751</v>
       </c>
     </row>
@@ -17921,27 +17920,27 @@
         <v>7.1525828388985206E-5</v>
       </c>
       <c r="AA82" s="3">
-        <f>ABS((G82-B82)/B82)</f>
+        <f t="shared" si="10"/>
         <v>2.7246299213533255E-2</v>
       </c>
       <c r="AB82" s="3">
-        <f>ABS((J82-C82)/C82)</f>
+        <f t="shared" si="11"/>
         <v>5.4108667671788339E-2</v>
       </c>
       <c r="AC82" s="3">
-        <f>(J82-G82)/G82</f>
+        <f t="shared" si="12"/>
         <v>6.7775688150409061E-2</v>
       </c>
       <c r="AD82" s="3">
-        <f>(J82-D82)/D82</f>
+        <f t="shared" si="13"/>
         <v>-0.44558930515801232</v>
       </c>
       <c r="AE82" s="3">
-        <f>(G82+H82-J82)/H82</f>
+        <f t="shared" si="14"/>
         <v>0.93427126103641644</v>
       </c>
     </row>
-    <row r="83" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>74</v>
       </c>
@@ -18021,23 +18020,23 @@
         <v>7.0425965532194796E-5</v>
       </c>
       <c r="AA83" s="3">
-        <f>ABS((G83-B83)/B83)</f>
+        <f t="shared" si="10"/>
         <v>1.370020390493649E-2</v>
       </c>
       <c r="AB83" s="3">
-        <f>ABS((J83-C83)/C83)</f>
+        <f t="shared" si="11"/>
         <v>0.15453563106171614</v>
       </c>
       <c r="AC83" s="3">
-        <f>(J83-G83)/G83</f>
+        <f t="shared" si="12"/>
         <v>2.4469212348978812E-2</v>
       </c>
       <c r="AD83" s="3">
-        <f>(J83-D83)/D83</f>
+        <f t="shared" si="13"/>
         <v>-0.45082675342369605</v>
       </c>
       <c r="AE83" s="3">
-        <f>(G83+H83-J83)/H83</f>
+        <f t="shared" si="14"/>
         <v>0.9751201750971098</v>
       </c>
     </row>
@@ -18121,27 +18120,27 @@
         <v>7.1743532316759202E-5</v>
       </c>
       <c r="AA84" s="3">
-        <f>ABS((G84-B84)/B84)</f>
+        <f t="shared" si="10"/>
         <v>1.1188082339817716E-2</v>
       </c>
       <c r="AB84" s="3">
-        <f>ABS((J84-C84)/C84)</f>
+        <f t="shared" si="11"/>
         <v>0.41706667952169307</v>
       </c>
       <c r="AC84" s="3">
-        <f>(J84-G84)/G84</f>
+        <f t="shared" si="12"/>
         <v>6.5370765825929614E-2</v>
       </c>
       <c r="AD84" s="3">
-        <f>(J84-D84)/D84</f>
+        <f t="shared" si="13"/>
         <v>-0.11717584932580653</v>
       </c>
       <c r="AE84" s="3">
-        <f>(G84+H84-J84)/H84</f>
+        <f t="shared" si="14"/>
         <v>0.75751817516713416</v>
       </c>
     </row>
-    <row r="85" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>50</v>
       </c>
@@ -18221,23 +18220,23 @@
         <v>7.0565656642429504E-5</v>
       </c>
       <c r="AA85" s="3">
-        <f>ABS((G85-B85)/B85)</f>
+        <f t="shared" si="10"/>
         <v>2.2534936785594484E-2</v>
       </c>
       <c r="AB85" s="3">
-        <f>ABS((J85-C85)/C85)</f>
+        <f t="shared" si="11"/>
         <v>0.22636072601410706</v>
       </c>
       <c r="AC85" s="3">
-        <f>(J85-G85)/G85</f>
+        <f t="shared" si="12"/>
         <v>2.0727887219170876E-2</v>
       </c>
       <c r="AD85" s="3">
-        <f>(J85-D85)/D85</f>
+        <f t="shared" si="13"/>
         <v>-0.46119749693341677</v>
       </c>
       <c r="AE85" s="3">
-        <f>(G85+H85-J85)/H85</f>
+        <f t="shared" si="14"/>
         <v>0.979027373365565</v>
       </c>
     </row>
@@ -18321,27 +18320,27 @@
         <v>7.2636779805179604E-5</v>
       </c>
       <c r="AA86" s="3">
-        <f>ABS((G86-B86)/B86)</f>
+        <f t="shared" si="10"/>
         <v>5.7462449775017216E-2</v>
       </c>
       <c r="AB86" s="3">
-        <f>ABS((J86-C86)/C86)</f>
+        <f t="shared" si="11"/>
         <v>0.24154567904001609</v>
       </c>
       <c r="AC86" s="3">
-        <f>(J86-G86)/G86</f>
+        <f t="shared" si="12"/>
         <v>5.1324625340991296E-2</v>
       </c>
       <c r="AD86" s="3">
-        <f>(J86-D86)/D86</f>
+        <f t="shared" si="13"/>
         <v>-9.6363362271297492E-2</v>
       </c>
       <c r="AE86" s="3">
-        <f>(G86+H86-J86)/H86</f>
+        <f t="shared" si="14"/>
         <v>0.83675958122427796</v>
       </c>
     </row>
-    <row r="87" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>47</v>
       </c>
@@ -18421,23 +18420,23 @@
         <v>7.1717870014254004E-5</v>
       </c>
       <c r="AA87" s="3">
-        <f>ABS((G87-B87)/B87)</f>
+        <f t="shared" si="10"/>
         <v>4.0299412498132667E-2</v>
       </c>
       <c r="AB87" s="3">
-        <f>ABS((J87-C87)/C87)</f>
+        <f t="shared" si="11"/>
         <v>0.26278721562319141</v>
       </c>
       <c r="AC87" s="3">
-        <f>(J87-G87)/G87</f>
+        <f t="shared" si="12"/>
         <v>1.9506026341478033E-3</v>
       </c>
       <c r="AD87" s="3">
-        <f>(J87-D87)/D87</f>
+        <f t="shared" si="13"/>
         <v>-0.45959747488525621</v>
       </c>
       <c r="AE87" s="3">
-        <f>(G87+H87-J87)/H87</f>
+        <f t="shared" si="14"/>
         <v>0.99796051786508599</v>
       </c>
     </row>
@@ -18521,27 +18520,27 @@
         <v>7.1422917244490195E-5</v>
       </c>
       <c r="AA88" s="3">
-        <f>ABS((G88-B88)/B88)</f>
+        <f t="shared" si="10"/>
         <v>9.6855878141902906E-3</v>
       </c>
       <c r="AB88" s="3">
-        <f>ABS((J88-C88)/C88)</f>
+        <f t="shared" si="11"/>
         <v>0.46995323847824838</v>
       </c>
       <c r="AC88" s="3">
-        <f>(J88-G88)/G88</f>
+        <f t="shared" si="12"/>
         <v>5.121888119843656E-2</v>
       </c>
       <c r="AD88" s="3">
-        <f>(J88-D88)/D88</f>
+        <f t="shared" si="13"/>
         <v>-0.17160103166116036</v>
       </c>
       <c r="AE88" s="3">
-        <f>(G88+H88-J88)/H88</f>
+        <f t="shared" si="14"/>
         <v>0.92878270396305129</v>
       </c>
     </row>
-    <row r="89" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>73</v>
       </c>
@@ -18621,23 +18620,23 @@
         <v>7.2486014687456096E-5</v>
       </c>
       <c r="AA89" s="3">
-        <f>ABS((G89-B89)/B89)</f>
+        <f t="shared" si="10"/>
         <v>1.0186234412878528E-3</v>
       </c>
       <c r="AB89" s="3">
-        <f>ABS((J89-C89)/C89)</f>
+        <f t="shared" si="11"/>
         <v>9.6691352266154648E-2</v>
       </c>
       <c r="AC89" s="3">
-        <f>(J89-G89)/G89</f>
+        <f t="shared" si="12"/>
         <v>5.403350209189673E-2</v>
       </c>
       <c r="AD89" s="3">
-        <f>(J89-D89)/D89</f>
+        <f t="shared" si="13"/>
         <v>-0.43571624200477688</v>
       </c>
       <c r="AE89" s="3">
-        <f>(G89+H89-J89)/H89</f>
+        <f t="shared" si="14"/>
         <v>0.9465837878901453</v>
       </c>
     </row>
@@ -18721,23 +18720,23 @@
         <v>7.2002061642706394E-5</v>
       </c>
       <c r="AA90" s="3">
-        <f>ABS((G90-B90)/B90)</f>
+        <f t="shared" si="10"/>
         <v>1.2998787516125914E-3</v>
       </c>
       <c r="AB90" s="3">
-        <f>ABS((J90-C90)/C90)</f>
+        <f t="shared" si="11"/>
         <v>0.59283528954532749</v>
       </c>
       <c r="AC90" s="3">
-        <f>(J90-G90)/G90</f>
+        <f t="shared" si="12"/>
         <v>5.1162968660348661E-2</v>
       </c>
       <c r="AD90" s="3">
-        <f>(J90-D90)/D90</f>
+        <f t="shared" si="13"/>
         <v>4.7113661352754022E-2</v>
       </c>
       <c r="AE90" s="3">
-        <f>(G90+H90-J90)/H90</f>
+        <f t="shared" si="14"/>
         <v>0.77508542331095176</v>
       </c>
     </row>
@@ -18821,23 +18820,23 @@
         <v>7.2503527917433503E-5</v>
       </c>
       <c r="AA91" s="3">
-        <f>ABS((G91-B91)/B91)</f>
+        <f t="shared" si="10"/>
         <v>9.1318933831433455E-2</v>
       </c>
       <c r="AB91" s="3">
-        <f>ABS((J91-C91)/C91)</f>
+        <f t="shared" si="11"/>
         <v>0.48687576446095027</v>
       </c>
       <c r="AC91" s="3">
-        <f>(J91-G91)/G91</f>
+        <f t="shared" si="12"/>
         <v>4.8842822011851333E-2</v>
       </c>
       <c r="AD91" s="3">
-        <f>(J91-D91)/D91</f>
+        <f t="shared" si="13"/>
         <v>3.378329362044253E-2</v>
       </c>
       <c r="AE91" s="3">
-        <f>(G91+H91-J91)/H91</f>
+        <f t="shared" si="14"/>
         <v>0.87763760976613037</v>
       </c>
     </row>
@@ -18921,23 +18920,23 @@
         <v>7.1454749559052194E-5</v>
       </c>
       <c r="AA92" s="3">
-        <f>ABS((G92-B92)/B92)</f>
+        <f t="shared" si="10"/>
         <v>1.2777793112271842E-2</v>
       </c>
       <c r="AB92" s="3">
-        <f>ABS((J92-C92)/C92)</f>
+        <f t="shared" si="11"/>
         <v>0.41706667952169307</v>
       </c>
       <c r="AC92" s="3">
-        <f>(J92-G92)/G92</f>
+        <f t="shared" si="12"/>
         <v>4.7891401052191834E-2</v>
       </c>
       <c r="AD92" s="3">
-        <f>(J92-D92)/D92</f>
+        <f t="shared" si="13"/>
         <v>-0.12921227110233952</v>
       </c>
       <c r="AE92" s="3">
-        <f>(G92+H92-J92)/H92</f>
+        <f t="shared" si="14"/>
         <v>0.81939171855663528</v>
       </c>
     </row>
@@ -19021,23 +19020,23 @@
         <v>7.2353483119513799E-5</v>
       </c>
       <c r="AA93" s="3">
-        <f>ABS((G93-B93)/B93)</f>
+        <f t="shared" si="10"/>
         <v>6.6727157789131269E-2</v>
       </c>
       <c r="AB93" s="3">
-        <f>ABS((J93-C93)/C93)</f>
+        <f t="shared" si="11"/>
         <v>0.23323207043153646</v>
       </c>
       <c r="AC93" s="3">
-        <f>(J93-G93)/G93</f>
+        <f t="shared" si="12"/>
         <v>4.6221168765309184E-2</v>
       </c>
       <c r="AD93" s="3">
-        <f>(J93-D93)/D93</f>
+        <f t="shared" si="13"/>
         <v>-0.21632117297235298</v>
       </c>
       <c r="AE93" s="3">
-        <f>(G93+H93-J93)/H93</f>
+        <f t="shared" si="14"/>
         <v>0.93832823896896755</v>
       </c>
     </row>
@@ -19121,23 +19120,23 @@
         <v>7.2232629463542199E-5</v>
       </c>
       <c r="AA94" s="3">
-        <f>ABS((G94-B94)/B94)</f>
+        <f t="shared" si="10"/>
         <v>8.0994752152479754E-2</v>
       </c>
       <c r="AB94" s="3">
-        <f>ABS((J94-C94)/C94)</f>
+        <f t="shared" si="11"/>
         <v>0.22810954877513551</v>
       </c>
       <c r="AC94" s="3">
-        <f>(J94-G94)/G94</f>
+        <f t="shared" si="12"/>
         <v>4.5036249519829735E-2</v>
       </c>
       <c r="AD94" s="3">
-        <f>(J94-D94)/D94</f>
+        <f t="shared" si="13"/>
         <v>-0.23545277947549073</v>
       </c>
       <c r="AE94" s="3">
-        <f>(G94+H94-J94)/H94</f>
+        <f t="shared" si="14"/>
         <v>0.9407078725938538</v>
       </c>
     </row>
@@ -19221,23 +19220,23 @@
         <v>7.2025759436655695E-5</v>
       </c>
       <c r="AA95" s="3">
-        <f>ABS((G95-B95)/B95)</f>
+        <f t="shared" si="10"/>
         <v>7.2973577279129087E-3</v>
       </c>
       <c r="AB95" s="3">
-        <f>ABS((J95-C95)/C95)</f>
+        <f t="shared" si="11"/>
         <v>0.46153075135855448</v>
       </c>
       <c r="AC95" s="3">
-        <f>(J95-G95)/G95</f>
+        <f t="shared" si="12"/>
         <v>4.1916903176902991E-2</v>
       </c>
       <c r="AD95" s="3">
-        <f>(J95-D95)/D95</f>
+        <f t="shared" si="13"/>
         <v>-0.17700248007974922</v>
       </c>
       <c r="AE95" s="3">
-        <f>(G95+H95-J95)/H95</f>
+        <f t="shared" si="14"/>
         <v>0.93807101304841578</v>
       </c>
     </row>
@@ -19321,23 +19320,23 @@
         <v>7.2127266321331195E-5</v>
       </c>
       <c r="AA96" s="3">
-        <f>ABS((G96-B96)/B96)</f>
+        <f t="shared" si="10"/>
         <v>4.4536065525099311E-2</v>
       </c>
       <c r="AB96" s="3">
-        <f>ABS((J96-C96)/C96)</f>
+        <f t="shared" si="11"/>
         <v>0.40863964741822845</v>
       </c>
       <c r="AC96" s="3">
-        <f>(J96-G96)/G96</f>
+        <f t="shared" si="12"/>
         <v>3.5855560757384358E-2</v>
       </c>
       <c r="AD96" s="3">
-        <f>(J96-D96)/D96</f>
+        <f t="shared" si="13"/>
         <v>3.2952650440436368E-2</v>
       </c>
       <c r="AE96" s="3">
-        <f>(G96+H96-J96)/H96</f>
+        <f t="shared" si="14"/>
         <v>0.88517182448815535</v>
       </c>
     </row>
@@ -19421,23 +19420,23 @@
         <v>7.3471295763738399E-5</v>
       </c>
       <c r="AA97" s="3">
-        <f>ABS((G97-B97)/B97)</f>
+        <f t="shared" si="10"/>
         <v>1.9907674793602437E-2</v>
       </c>
       <c r="AB97" s="3">
-        <f>ABS((J97-C97)/C97)</f>
+        <f t="shared" si="11"/>
         <v>0.87953304583888614</v>
       </c>
       <c r="AC97" s="3">
-        <f>(J97-G97)/G97</f>
+        <f t="shared" si="12"/>
         <v>3.3275204986981444E-2</v>
       </c>
       <c r="AD97" s="3">
-        <f>(J97-D97)/D97</f>
+        <f t="shared" si="13"/>
         <v>-4.0201432838938678E-2</v>
       </c>
       <c r="AE97" s="3">
-        <f>(G97+H97-J97)/H97</f>
+        <f t="shared" si="14"/>
         <v>0.95436077056482871</v>
       </c>
     </row>
@@ -19521,23 +19520,23 @@
         <v>7.1692331403028206E-5</v>
       </c>
       <c r="AA98" s="3">
-        <f>ABS((G98-B98)/B98)</f>
+        <f t="shared" ref="AA98:AA129" si="15">ABS((G98-B98)/B98)</f>
         <v>7.5772624947806943E-3</v>
       </c>
       <c r="AB98" s="3">
-        <f>ABS((J98-C98)/C98)</f>
+        <f t="shared" ref="AB98:AB129" si="16">ABS((J98-C98)/C98)</f>
         <v>1.8053095089116304</v>
       </c>
       <c r="AC98" s="3">
-        <f>(J98-G98)/G98</f>
+        <f t="shared" ref="AC98:AC129" si="17">(J98-G98)/G98</f>
         <v>3.3116997863420025E-2</v>
       </c>
       <c r="AD98" s="3">
-        <f>(J98-D98)/D98</f>
+        <f t="shared" ref="AD98:AD129" si="18">(J98-D98)/D98</f>
         <v>3.3116997863420025E-2</v>
       </c>
       <c r="AE98" s="3">
-        <f>(G98+H98-J98)/H98</f>
+        <f t="shared" ref="AE98:AE129" si="19">(G98+H98-J98)/H98</f>
         <v>0.96688300213657996</v>
       </c>
     </row>
@@ -19621,23 +19620,23 @@
         <v>7.1856964495964294E-5</v>
       </c>
       <c r="AA99" s="3">
-        <f>ABS((G99-B99)/B99)</f>
+        <f t="shared" si="15"/>
         <v>8.16564933040838E-3</v>
       </c>
       <c r="AB99" s="3">
-        <f>ABS((J99-C99)/C99)</f>
+        <f t="shared" si="16"/>
         <v>0.87613528278422048</v>
       </c>
       <c r="AC99" s="3">
-        <f>(J99-G99)/G99</f>
+        <f t="shared" si="17"/>
         <v>3.2483465350950258E-2</v>
       </c>
       <c r="AD99" s="3">
-        <f>(J99-D99)/D99</f>
+        <f t="shared" si="18"/>
         <v>3.1867358395243198E-2</v>
       </c>
       <c r="AE99" s="3">
-        <f>(G99+H99-J99)/H99</f>
+        <f t="shared" si="19"/>
         <v>0.72800016808506496</v>
       </c>
     </row>
@@ -19721,23 +19720,23 @@
         <v>7.2435956099070595E-5</v>
       </c>
       <c r="AA100" s="3">
-        <f>ABS((G100-B100)/B100)</f>
+        <f t="shared" si="15"/>
         <v>2.2722092028194104E-3</v>
       </c>
       <c r="AB100" s="3">
-        <f>ABS((J100-C100)/C100)</f>
+        <f t="shared" si="16"/>
         <v>0.41074445090845407</v>
       </c>
       <c r="AC100" s="3">
-        <f>(J100-G100)/G100</f>
+        <f t="shared" si="17"/>
         <v>3.2402308020125843E-2</v>
       </c>
       <c r="AD100" s="3">
-        <f>(J100-D100)/D100</f>
+        <f t="shared" si="18"/>
         <v>-0.10621590299473814</v>
       </c>
       <c r="AE100" s="3">
-        <f>(G100+H100-J100)/H100</f>
+        <f t="shared" si="19"/>
         <v>0.90681969183527122</v>
       </c>
     </row>
@@ -19821,23 +19820,23 @@
         <v>7.2811984864529195E-5</v>
       </c>
       <c r="AA101" s="3">
-        <f>ABS((G101-B101)/B101)</f>
+        <f t="shared" si="15"/>
         <v>0.12659679454102732</v>
       </c>
       <c r="AB101" s="3">
-        <f>ABS((J101-C101)/C101)</f>
+        <f t="shared" si="16"/>
         <v>0.29965607434928898</v>
       </c>
       <c r="AC101" s="3">
-        <f>(J101-G101)/G101</f>
+        <f t="shared" si="17"/>
         <v>2.8565084545342626E-2</v>
       </c>
       <c r="AD101" s="3">
-        <f>(J101-D101)/D101</f>
+        <f t="shared" si="18"/>
         <v>-0.23159679241500941</v>
       </c>
       <c r="AE101" s="3">
-        <f>(G101+H101-J101)/H101</f>
+        <f t="shared" si="19"/>
         <v>0.95621277883650602</v>
       </c>
     </row>
@@ -19921,27 +19920,27 @@
         <v>7.5485324487090097E-5</v>
       </c>
       <c r="AA102" s="3">
-        <f>ABS((G102-B102)/B102)</f>
+        <f t="shared" si="15"/>
         <v>1.868556225692912E-2</v>
       </c>
       <c r="AB102" s="3">
-        <f>ABS((J102-C102)/C102)</f>
+        <f t="shared" si="16"/>
         <v>0.11620514773422921</v>
       </c>
       <c r="AC102" s="3">
-        <f>(J102-G102)/G102</f>
+        <f t="shared" si="17"/>
         <v>2.4962021273554697E-2</v>
       </c>
       <c r="AD102" s="3">
-        <f>(J102-D102)/D102</f>
+        <f t="shared" si="18"/>
         <v>-0.11160399501541221</v>
       </c>
       <c r="AE102" s="3">
-        <f>(G102+H102-J102)/H102</f>
+        <f t="shared" si="19"/>
         <v>0.94852438149712304</v>
       </c>
     </row>
-    <row r="103" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>77</v>
       </c>
@@ -20021,23 +20020,23 @@
         <v>7.2054528573062203E-5</v>
       </c>
       <c r="AA103" s="3">
-        <f>ABS((G103-B103)/B103)</f>
+        <f t="shared" si="15"/>
         <v>4.3319748020564902E-2</v>
       </c>
       <c r="AB103" s="3">
-        <f>ABS((J103-C103)/C103)</f>
+        <f t="shared" si="16"/>
         <v>0.32856820966246225</v>
       </c>
       <c r="AC103" s="3">
-        <f>(J103-G103)/G103</f>
+        <f t="shared" si="17"/>
         <v>-0.37509385858761973</v>
       </c>
       <c r="AD103" s="3">
-        <f>(J103-D103)/D103</f>
+        <f t="shared" si="18"/>
         <v>-0.37742728484364851</v>
       </c>
       <c r="AE103" s="3">
-        <f>(G103+H103-J103)/H103</f>
+        <f t="shared" si="19"/>
         <v>1.5003912482912882</v>
       </c>
     </row>
@@ -20121,27 +20120,27 @@
         <v>7.3020972195081399E-5</v>
       </c>
       <c r="AA104" s="3">
-        <f>ABS((G104-B104)/B104)</f>
+        <f t="shared" si="15"/>
         <v>2.651961915963963E-5</v>
       </c>
       <c r="AB104" s="3">
-        <f>ABS((J104-C104)/C104)</f>
+        <f t="shared" si="16"/>
         <v>0.85500482525550392</v>
       </c>
       <c r="AC104" s="3">
-        <f>(J104-G104)/G104</f>
+        <f t="shared" si="17"/>
         <v>2.4650991774005884E-2</v>
       </c>
       <c r="AD104" s="3">
-        <f>(J104-D104)/D104</f>
+        <f t="shared" si="18"/>
         <v>-5.3292367838279758E-2</v>
       </c>
       <c r="AE104" s="3">
-        <f>(G104+H104-J104)/H104</f>
+        <f t="shared" si="19"/>
         <v>0.96137549592965998</v>
       </c>
     </row>
-    <row r="105" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>58</v>
       </c>
@@ -20221,23 +20220,23 @@
         <v>7.2645838372409303E-5</v>
       </c>
       <c r="AA105" s="3">
-        <f>ABS((G105-B105)/B105)</f>
+        <f t="shared" si="15"/>
         <v>1.3497443919249934E-2</v>
       </c>
       <c r="AB105" s="3">
-        <f>ABS((J105-C105)/C105)</f>
+        <f t="shared" si="16"/>
         <v>0.3191793528039592</v>
       </c>
       <c r="AC105" s="3">
-        <f>(J105-G105)/G105</f>
+        <f t="shared" si="17"/>
         <v>-0.35020204240177627</v>
       </c>
       <c r="AD105" s="3">
-        <f>(J105-D105)/D105</f>
+        <f t="shared" si="18"/>
         <v>-0.35398367048887852</v>
       </c>
       <c r="AE105" s="3">
-        <f>(G105+H105-J105)/H105</f>
+        <f t="shared" si="19"/>
         <v>3.8118310699236226</v>
       </c>
     </row>
@@ -20321,27 +20320,27 @@
         <v>7.4964569648727693E-5</v>
       </c>
       <c r="AA106" s="3">
-        <f>ABS((G106-B106)/B106)</f>
+        <f t="shared" si="15"/>
         <v>4.8352200521499911E-2</v>
       </c>
       <c r="AB106" s="3">
-        <f>ABS((J106-C106)/C106)</f>
+        <f t="shared" si="16"/>
         <v>0.31274828925431364</v>
       </c>
       <c r="AC106" s="3">
-        <f>(J106-G106)/G106</f>
+        <f t="shared" si="17"/>
         <v>1.9895652936207736E-2</v>
       </c>
       <c r="AD106" s="3">
-        <f>(J106-D106)/D106</f>
+        <f t="shared" si="18"/>
         <v>-0.11128778059742642</v>
       </c>
       <c r="AE106" s="3">
-        <f>(G106+H106-J106)/H106</f>
+        <f t="shared" si="19"/>
         <v>0.93719041044979967</v>
       </c>
     </row>
-    <row r="107" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>56</v>
       </c>
@@ -20421,23 +20420,23 @@
         <v>7.3172166594304104E-5</v>
       </c>
       <c r="AA107" s="3">
-        <f>ABS((G107-B107)/B107)</f>
+        <f t="shared" si="15"/>
         <v>1.0906339330436417E-2</v>
       </c>
       <c r="AB107" s="3">
-        <f>ABS((J107-C107)/C107)</f>
+        <f t="shared" si="16"/>
         <v>0.61942124335968018</v>
       </c>
       <c r="AC107" s="3">
-        <f>(J107-G107)/G107</f>
+        <f t="shared" si="17"/>
         <v>-0.32148427049112366</v>
       </c>
       <c r="AD107" s="3">
-        <f>(J107-D107)/D107</f>
+        <f t="shared" si="18"/>
         <v>-0.32415112119306011</v>
       </c>
       <c r="AE107" s="3">
-        <f>(G107+H107-J107)/H107</f>
+        <f t="shared" si="19"/>
         <v>2.7108903487323075</v>
       </c>
     </row>
@@ -20521,27 +20520,27 @@
         <v>7.2977090894710205E-5</v>
       </c>
       <c r="AA108" s="3">
-        <f>ABS((G108-B108)/B108)</f>
+        <f t="shared" si="15"/>
         <v>1.5336237092764588E-3</v>
       </c>
       <c r="AB108" s="3">
-        <f>ABS((J108-C108)/C108)</f>
+        <f t="shared" si="16"/>
         <v>1.5744124645966122</v>
       </c>
       <c r="AC108" s="3">
-        <f>(J108-G108)/G108</f>
+        <f t="shared" si="17"/>
         <v>1.5708926713688908E-2</v>
       </c>
       <c r="AD108" s="3">
-        <f>(J108-D108)/D108</f>
+        <f t="shared" si="18"/>
         <v>1.5708926713688908E-2</v>
       </c>
       <c r="AE108" s="3">
-        <f>(G108+H108-J108)/H108</f>
+        <f t="shared" si="19"/>
         <v>0.98429107328631105</v>
       </c>
     </row>
-    <row r="109" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>75</v>
       </c>
@@ -20621,23 +20620,23 @@
         <v>7.2508621087763404E-5</v>
       </c>
       <c r="AA109" s="3">
-        <f>ABS((G109-B109)/B109)</f>
+        <f t="shared" si="15"/>
         <v>1.1647073827655832E-2</v>
       </c>
       <c r="AB109" s="3">
-        <f>ABS((J109-C109)/C109)</f>
+        <f t="shared" si="16"/>
         <v>0.18454876457970631</v>
       </c>
       <c r="AC109" s="3">
-        <f>(J109-G109)/G109</f>
+        <f t="shared" si="17"/>
         <v>-0.35453515272034997</v>
       </c>
       <c r="AD109" s="3">
-        <f>(J109-D109)/D109</f>
+        <f t="shared" si="18"/>
         <v>-0.3571683755481998</v>
       </c>
       <c r="AE109" s="3">
-        <f>(G109+H109-J109)/H109</f>
+        <f t="shared" si="19"/>
         <v>1.3462047285956686</v>
       </c>
     </row>
@@ -20721,23 +20720,23 @@
         <v>7.2095514042302898E-5</v>
       </c>
       <c r="AA110" s="3">
-        <f>ABS((G110-B110)/B110)</f>
+        <f t="shared" si="15"/>
         <v>6.0239751840155752E-2</v>
       </c>
       <c r="AB110" s="3">
-        <f>ABS((J110-C110)/C110)</f>
+        <f t="shared" si="16"/>
         <v>0.25272916514915167</v>
       </c>
       <c r="AC110" s="3">
-        <f>(J110-G110)/G110</f>
+        <f t="shared" si="17"/>
         <v>1.5156477956619521E-2</v>
       </c>
       <c r="AD110" s="3">
-        <f>(J110-D110)/D110</f>
+        <f t="shared" si="18"/>
         <v>-0.11589362975770483</v>
       </c>
       <c r="AE110" s="3">
-        <f>(G110+H110-J110)/H110</f>
+        <f t="shared" si="19"/>
         <v>0.94965636855804758</v>
       </c>
     </row>
@@ -20821,23 +20820,23 @@
         <v>7.2786984674166807E-5</v>
       </c>
       <c r="AA111" s="3">
-        <f>ABS((G111-B111)/B111)</f>
+        <f t="shared" si="15"/>
         <v>0.83782134547265075</v>
       </c>
       <c r="AB111" s="3">
-        <f>ABS((J111-C111)/C111)</f>
+        <f t="shared" si="16"/>
         <v>0.32499854323444194</v>
       </c>
       <c r="AC111" s="3">
-        <f>(J111-G111)/G111</f>
+        <f t="shared" si="17"/>
         <v>1.092842187807439E-2</v>
       </c>
       <c r="AD111" s="3">
-        <f>(J111-D111)/D111</f>
+        <f t="shared" si="18"/>
         <v>-1.017301368844576E-2</v>
       </c>
       <c r="AE111" s="3">
-        <f>(G111+H111-J111)/H111</f>
+        <f t="shared" si="19"/>
         <v>0.69857321994789545</v>
       </c>
     </row>
@@ -20921,23 +20920,23 @@
         <v>7.2147748142015094E-5</v>
       </c>
       <c r="AA112" s="3">
-        <f>ABS((G112-B112)/B112)</f>
+        <f t="shared" si="15"/>
         <v>2.1586995972697288E-2</v>
       </c>
       <c r="AB112" s="3">
-        <f>ABS((J112-C112)/C112)</f>
+        <f t="shared" si="16"/>
         <v>3.0925169367638707E-2</v>
       </c>
       <c r="AC112" s="3">
-        <f>(J112-G112)/G112</f>
+        <f t="shared" si="17"/>
         <v>-3.4947598685767895E-3</v>
       </c>
       <c r="AD112" s="3">
-        <f>(J112-D112)/D112</f>
+        <f t="shared" si="18"/>
         <v>-0.14969919431836287</v>
       </c>
       <c r="AE112" s="3">
-        <f>(G112+H112-J112)/H112</f>
+        <f t="shared" si="19"/>
         <v>1.0076014975574821</v>
       </c>
     </row>
@@ -21021,23 +21020,23 @@
         <v>7.2546084993518794E-5</v>
       </c>
       <c r="AA113" s="3">
-        <f>ABS((G113-B113)/B113)</f>
+        <f t="shared" si="15"/>
         <v>0.5817177975550587</v>
       </c>
       <c r="AB113" s="3">
-        <f>ABS((J113-C113)/C113)</f>
+        <f t="shared" si="16"/>
         <v>5.0763607079576105E-2</v>
       </c>
       <c r="AC113" s="3">
-        <f>(J113-G113)/G113</f>
+        <f t="shared" si="17"/>
         <v>-9.2650049400344638E-3</v>
       </c>
       <c r="AD113" s="3">
-        <f>(J113-D113)/D113</f>
+        <f t="shared" si="18"/>
         <v>-0.1008564748917386</v>
       </c>
       <c r="AE113" s="3">
-        <f>(G113+H113-J113)/H113</f>
+        <f t="shared" si="19"/>
         <v>1.0475683712161363</v>
       </c>
     </row>
@@ -21121,23 +21120,23 @@
         <v>7.3463685112074004E-5</v>
       </c>
       <c r="AA114" s="3">
-        <f>ABS((G114-B114)/B114)</f>
+        <f t="shared" si="15"/>
         <v>4.5842902802880944E-3</v>
       </c>
       <c r="AB114" s="3">
-        <f>ABS((J114-C114)/C114)</f>
+        <f t="shared" si="16"/>
         <v>0.21969221981107556</v>
       </c>
       <c r="AC114" s="3">
-        <f>(J114-G114)/G114</f>
+        <f t="shared" si="17"/>
         <v>-1.0492039054968167E-2</v>
       </c>
       <c r="AD114" s="3">
-        <f>(J114-D114)/D114</f>
+        <f t="shared" si="18"/>
         <v>-0.46955763462051026</v>
       </c>
       <c r="AE114" s="3">
-        <f>(G114+H114-J114)/H114</f>
+        <f t="shared" si="19"/>
         <v>1.0110928643128025</v>
       </c>
     </row>
@@ -21221,23 +21220,23 @@
         <v>7.0783105911687003E-5</v>
       </c>
       <c r="AA115" s="3">
-        <f>ABS((G115-B115)/B115)</f>
+        <f t="shared" si="15"/>
         <v>9.1203168594784778E-3</v>
       </c>
       <c r="AB115" s="3">
-        <f>ABS((J115-C115)/C115)</f>
+        <f t="shared" si="16"/>
         <v>0.48045133818973479</v>
       </c>
       <c r="AC115" s="3">
-        <f>(J115-G115)/G115</f>
+        <f t="shared" si="17"/>
         <v>-1.2105836943141971E-2</v>
       </c>
       <c r="AD115" s="3">
-        <f>(J115-D115)/D115</f>
+        <f t="shared" si="18"/>
         <v>-0.22561159633146191</v>
       </c>
       <c r="AE115" s="3">
-        <f>(G115+H115-J115)/H115</f>
+        <f t="shared" si="19"/>
         <v>1.0202415425104288</v>
       </c>
     </row>
@@ -21321,23 +21320,23 @@
         <v>7.3467461334075697E-5</v>
       </c>
       <c r="AA116" s="3">
-        <f>ABS((G116-B116)/B116)</f>
+        <f t="shared" si="15"/>
         <v>3.052299508706122E-2</v>
       </c>
       <c r="AB116" s="3">
-        <f>ABS((J116-C116)/C116)</f>
+        <f t="shared" si="16"/>
         <v>9.1570351065328112E-2</v>
       </c>
       <c r="AC116" s="3">
-        <f>(J116-G116)/G116</f>
+        <f t="shared" si="17"/>
         <v>-1.4947378578155181E-2</v>
       </c>
       <c r="AD116" s="3">
-        <f>(J116-D116)/D116</f>
+        <f t="shared" si="18"/>
         <v>-0.15104689284618952</v>
       </c>
       <c r="AE116" s="3">
-        <f>(G116+H116-J116)/H116</f>
+        <f t="shared" si="19"/>
         <v>1.0339385470334364</v>
       </c>
     </row>
@@ -21421,23 +21420,23 @@
         <v>7.24823330529034E-5</v>
       </c>
       <c r="AA117" s="3">
-        <f>ABS((G117-B117)/B117)</f>
+        <f t="shared" si="15"/>
         <v>5.8950676473809256E-2</v>
       </c>
       <c r="AB117" s="3">
-        <f>ABS((J117-C117)/C117)</f>
+        <f t="shared" si="16"/>
         <v>0.80515174416921709</v>
       </c>
       <c r="AC117" s="3">
-        <f>(J117-G117)/G117</f>
+        <f t="shared" si="17"/>
         <v>-1.6789851492043248E-2</v>
       </c>
       <c r="AD117" s="3">
-        <f>(J117-D117)/D117</f>
+        <f t="shared" si="18"/>
         <v>-0.1740979735243211</v>
       </c>
       <c r="AE117" s="3">
-        <f>(G117+H117-J117)/H117</f>
+        <f t="shared" si="19"/>
         <v>1.0286621206441857</v>
       </c>
     </row>
@@ -21521,23 +21520,23 @@
         <v>7.3305527621414499E-5</v>
       </c>
       <c r="AA118" s="3">
-        <f>ABS((G118-B118)/B118)</f>
+        <f t="shared" si="15"/>
         <v>7.5121551045084251E-2</v>
       </c>
       <c r="AB118" s="3">
-        <f>ABS((J118-C118)/C118)</f>
+        <f t="shared" si="16"/>
         <v>0.82956354482723527</v>
       </c>
       <c r="AC118" s="3">
-        <f>(J118-G118)/G118</f>
+        <f t="shared" si="17"/>
         <v>-1.732452216222493E-2</v>
       </c>
       <c r="AD118" s="3">
-        <f>(J118-D118)/D118</f>
+        <f t="shared" si="18"/>
         <v>-0.17591123006853795</v>
       </c>
       <c r="AE118" s="3">
-        <f>(G118+H118-J118)/H118</f>
+        <f t="shared" si="19"/>
         <v>1.0287848199626797</v>
       </c>
     </row>
@@ -21621,23 +21620,23 @@
         <v>7.32132248231209E-5</v>
       </c>
       <c r="AA119" s="3">
-        <f>ABS((G119-B119)/B119)</f>
+        <f t="shared" si="15"/>
         <v>1.6473886654302404E-2</v>
       </c>
       <c r="AB119" s="3">
-        <f>ABS((J119-C119)/C119)</f>
+        <f t="shared" si="16"/>
         <v>0.13005139795363319</v>
       </c>
       <c r="AC119" s="3">
-        <f>(J119-G119)/G119</f>
+        <f t="shared" si="17"/>
         <v>-2.0104152605133572E-2</v>
       </c>
       <c r="AD119" s="3">
-        <f>(J119-D119)/D119</f>
+        <f t="shared" si="18"/>
         <v>-0.14387039872868493</v>
       </c>
       <c r="AE119" s="3">
-        <f>(G119+H119-J119)/H119</f>
+        <f t="shared" si="19"/>
         <v>1.0457528631339934</v>
       </c>
     </row>
@@ -21721,23 +21720,23 @@
         <v>7.4840929300989901E-5</v>
       </c>
       <c r="AA120" s="3">
-        <f>ABS((G120-B120)/B120)</f>
+        <f t="shared" si="15"/>
         <v>0.11422356046538804</v>
       </c>
       <c r="AB120" s="3">
-        <f>ABS((J120-C120)/C120)</f>
+        <f t="shared" si="16"/>
         <v>0.27864139080676847</v>
       </c>
       <c r="AC120" s="3">
-        <f>(J120-G120)/G120</f>
+        <f t="shared" si="17"/>
         <v>-2.3524303119449565E-2</v>
       </c>
       <c r="AD120" s="3">
-        <f>(J120-D120)/D120</f>
+        <f t="shared" si="18"/>
         <v>-0.2648786764931465</v>
       </c>
       <c r="AE120" s="3">
-        <f>(G120+H120-J120)/H120</f>
+        <f t="shared" si="19"/>
         <v>1.0378314978717651</v>
       </c>
     </row>
@@ -21821,23 +21820,23 @@
         <v>7.2593495133332895E-5</v>
       </c>
       <c r="AA121" s="3">
-        <f>ABS((G121-B121)/B121)</f>
+        <f t="shared" si="15"/>
         <v>1.5006738826954295E-2</v>
       </c>
       <c r="AB121" s="3">
-        <f>ABS((J121-C121)/C121)</f>
+        <f t="shared" si="16"/>
         <v>0.51055184669005871</v>
       </c>
       <c r="AC121" s="3">
-        <f>(J121-G121)/G121</f>
+        <f t="shared" si="17"/>
         <v>-2.9068822589672132E-2</v>
       </c>
       <c r="AD121" s="3">
-        <f>(J121-D121)/D121</f>
+        <f t="shared" si="18"/>
         <v>-0.2308444871814446</v>
       </c>
       <c r="AE121" s="3">
-        <f>(G121+H121-J121)/H121</f>
+        <f t="shared" si="19"/>
         <v>1.0483122545620922</v>
       </c>
     </row>
@@ -21921,27 +21920,27 @@
         <v>7.2503476985730204E-5</v>
       </c>
       <c r="AA122" s="3">
-        <f>ABS((G122-B122)/B122)</f>
+        <f t="shared" si="15"/>
         <v>0.11475179135584504</v>
       </c>
       <c r="AB122" s="3">
-        <f>ABS((J122-C122)/C122)</f>
+        <f t="shared" si="16"/>
         <v>9.3057061745328837E-2</v>
       </c>
       <c r="AC122" s="3">
-        <f>(J122-G122)/G122</f>
+        <f t="shared" si="17"/>
         <v>-3.2359816404731588E-2</v>
       </c>
       <c r="AD122" s="3">
-        <f>(J122-D122)/D122</f>
+        <f t="shared" si="18"/>
         <v>-0.4758921741109241</v>
       </c>
       <c r="AE122" s="3">
-        <f>(G122+H122-J122)/H122</f>
+        <f t="shared" si="19"/>
         <v>1.0347970412748551</v>
       </c>
     </row>
-    <row r="123" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>66</v>
       </c>
@@ -22021,23 +22020,23 @@
         <v>7.2120368713513003E-5</v>
       </c>
       <c r="AA123" s="3">
-        <f>ABS((G123-B123)/B123)</f>
+        <f t="shared" si="15"/>
         <v>1.4061955524139936E-2</v>
       </c>
       <c r="AB123" s="3">
-        <f>ABS((J123-C123)/C123)</f>
+        <f t="shared" si="16"/>
         <v>0.32229189010807996</v>
       </c>
       <c r="AC123" s="3">
-        <f>(J123-G123)/G123</f>
+        <f t="shared" si="17"/>
         <v>1.2268223602845301E-2</v>
       </c>
       <c r="AD123" s="3">
-        <f>(J123-D123)/D123</f>
+        <f t="shared" si="18"/>
         <v>-9.8490817637285136E-2</v>
       </c>
       <c r="AE123" s="3">
-        <f>(G123+H123-J123)/H123</f>
+        <f t="shared" si="19"/>
         <v>0.96395212768846927</v>
       </c>
     </row>
@@ -22121,27 +22120,27 @@
         <v>7.2355534939560999E-5</v>
       </c>
       <c r="AA124" s="3">
-        <f>ABS((G124-B124)/B124)</f>
+        <f t="shared" si="15"/>
         <v>0.13793033020065107</v>
       </c>
       <c r="AB124" s="3">
-        <f>ABS((J124-C124)/C124)</f>
+        <f t="shared" si="16"/>
         <v>0.59627423974500759</v>
       </c>
       <c r="AC124" s="3">
-        <f>(J124-G124)/G124</f>
+        <f t="shared" si="17"/>
         <v>-3.58291197013361E-2</v>
       </c>
       <c r="AD124" s="3">
-        <f>(J124-D124)/D124</f>
+        <f t="shared" si="18"/>
         <v>-4.8485798097712744E-2</v>
       </c>
       <c r="AE124" s="3">
-        <f>(G124+H124-J124)/H124</f>
+        <f t="shared" si="19"/>
         <v>1.2936009966530548</v>
       </c>
     </row>
-    <row r="125" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>67</v>
       </c>
@@ -22221,23 +22220,23 @@
         <v>7.10262756911106E-5</v>
       </c>
       <c r="AA125" s="3">
-        <f>ABS((G125-B125)/B125)</f>
+        <f t="shared" si="15"/>
         <v>5.2794717550107241E-3</v>
       </c>
       <c r="AB125" s="3">
-        <f>ABS((J125-C125)/C125)</f>
+        <f t="shared" si="16"/>
         <v>0.38353646013161452</v>
       </c>
       <c r="AC125" s="3">
-        <f>(J125-G125)/G125</f>
+        <f t="shared" si="17"/>
         <v>6.5146257019147282E-3</v>
       </c>
       <c r="AD125" s="3">
-        <f>(J125-D125)/D125</f>
+        <f t="shared" si="18"/>
         <v>-0.11607862006666457</v>
       </c>
       <c r="AE125" s="3">
-        <f>(G125+H125-J125)/H125</f>
+        <f t="shared" si="19"/>
         <v>0.97970820710478823</v>
       </c>
     </row>
@@ -22321,27 +22320,27 @@
         <v>7.4738134571816704E-5</v>
       </c>
       <c r="AA126" s="3">
-        <f>ABS((G126-B126)/B126)</f>
+        <f t="shared" si="15"/>
         <v>2.4566548200606185E-2</v>
       </c>
       <c r="AB126" s="3">
-        <f>ABS((J126-C126)/C126)</f>
+        <f t="shared" si="16"/>
         <v>0.31774528428533128</v>
       </c>
       <c r="AC126" s="3">
-        <f>(J126-G126)/G126</f>
+        <f t="shared" si="17"/>
         <v>-4.0030674072164249E-2</v>
       </c>
       <c r="AD126" s="3">
-        <f>(J126-D126)/D126</f>
+        <f t="shared" si="18"/>
         <v>-0.46160065342584117</v>
       </c>
       <c r="AE126" s="3">
-        <f>(G126+H126-J126)/H126</f>
+        <f t="shared" si="19"/>
         <v>1.0436556840262101</v>
       </c>
     </row>
-    <row r="127" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>71</v>
       </c>
@@ -22421,23 +22420,23 @@
         <v>7.4471041443757699E-5</v>
       </c>
       <c r="AA127" s="3">
-        <f>ABS((G127-B127)/B127)</f>
+        <f t="shared" si="15"/>
         <v>4.860142038022524E-2</v>
       </c>
       <c r="AB127" s="3">
-        <f>ABS((J127-C127)/C127)</f>
+        <f t="shared" si="16"/>
         <v>0.78782850596841225</v>
       </c>
       <c r="AC127" s="3">
-        <f>(J127-G127)/G127</f>
+        <f t="shared" si="17"/>
         <v>-6.455213862306483E-4</v>
       </c>
       <c r="AD127" s="3">
-        <f>(J127-D127)/D127</f>
+        <f t="shared" si="18"/>
         <v>-9.1175661451429538E-2</v>
       </c>
       <c r="AE127" s="3">
-        <f>(G127+H127-J127)/H127</f>
+        <f t="shared" si="19"/>
         <v>1.0017626538128896</v>
       </c>
     </row>
@@ -22521,27 +22520,27 @@
         <v>7.3116636485792696E-5</v>
       </c>
       <c r="AA128" s="3">
-        <f>ABS((G128-B128)/B128)</f>
+        <f t="shared" si="15"/>
         <v>3.159598333136361E-3</v>
       </c>
       <c r="AB128" s="3">
-        <f>ABS((J128-C128)/C128)</f>
+        <f t="shared" si="16"/>
         <v>0.86001249722763384</v>
       </c>
       <c r="AC128" s="3">
-        <f>(J128-G128)/G128</f>
+        <f t="shared" si="17"/>
         <v>-4.2484578396454697E-2</v>
       </c>
       <c r="AD128" s="3">
-        <f>(J128-D128)/D128</f>
+        <f t="shared" si="18"/>
         <v>-4.0785370397322822E-2</v>
       </c>
       <c r="AE128" s="3">
-        <f>(G128+H128-J128)/H128</f>
+        <f t="shared" si="19"/>
         <v>1.3431525804710427</v>
       </c>
     </row>
-    <row r="129" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>65</v>
       </c>
@@ -22621,23 +22620,23 @@
         <v>7.1246249717660194E-5</v>
       </c>
       <c r="AA129" s="3">
-        <f>ABS((G129-B129)/B129)</f>
+        <f t="shared" si="15"/>
         <v>3.0405061303711484E-2</v>
       </c>
       <c r="AB129" s="3">
-        <f>ABS((J129-C129)/C129)</f>
+        <f t="shared" si="16"/>
         <v>0.12408207483209602</v>
       </c>
       <c r="AC129" s="3">
-        <f>(J129-G129)/G129</f>
+        <f t="shared" si="17"/>
         <v>4.5605880392904675E-2</v>
       </c>
       <c r="AD129" s="3">
-        <f>(J129-D129)/D129</f>
+        <f t="shared" si="18"/>
         <v>-5.9641328992417683E-2</v>
       </c>
       <c r="AE129" s="3">
-        <f>(G129+H129-J129)/H129</f>
+        <f t="shared" si="19"/>
         <v>0.86430989009181647</v>
       </c>
     </row>
@@ -22721,23 +22720,23 @@
         <v>7.2433642344549298E-5</v>
       </c>
       <c r="AA130" s="3">
-        <f>ABS((G130-B130)/B130)</f>
+        <f t="shared" ref="AA130:AA161" si="20">ABS((G130-B130)/B130)</f>
         <v>4.528650549113647E-2</v>
       </c>
       <c r="AB130" s="3">
-        <f>ABS((J130-C130)/C130)</f>
+        <f t="shared" ref="AB130:AB161" si="21">ABS((J130-C130)/C130)</f>
         <v>5.3509612155128013E-2</v>
       </c>
       <c r="AC130" s="3">
-        <f>(J130-G130)/G130</f>
+        <f t="shared" ref="AC130:AC161" si="22">(J130-G130)/G130</f>
         <v>-4.8461863241910923E-2</v>
       </c>
       <c r="AD130" s="3">
-        <f>(J130-D130)/D130</f>
+        <f t="shared" ref="AD130:AD161" si="23">(J130-D130)/D130</f>
         <v>-0.48359075693350989</v>
       </c>
       <c r="AE130" s="3">
-        <f>(G130+H130-J130)/H130</f>
+        <f t="shared" ref="AE130:AE161" si="24">(G130+H130-J130)/H130</f>
         <v>1.0527406011511946</v>
       </c>
     </row>
@@ -22821,23 +22820,23 @@
         <v>7.1925176598597304E-5</v>
       </c>
       <c r="AA131" s="3">
-        <f>ABS((G131-B131)/B131)</f>
+        <f t="shared" si="20"/>
         <v>1.2720024505211444E-3</v>
       </c>
       <c r="AB131" s="3">
-        <f>ABS((J131-C131)/C131)</f>
+        <f t="shared" si="21"/>
         <v>1.5483113305270257</v>
       </c>
       <c r="AC131" s="3">
-        <f>(J131-G131)/G131</f>
+        <f t="shared" si="22"/>
         <v>-5.1924401095218613E-2</v>
       </c>
       <c r="AD131" s="3">
-        <f>(J131-D131)/D131</f>
+        <f t="shared" si="23"/>
         <v>-5.1924401095218613E-2</v>
       </c>
       <c r="AE131" s="3">
-        <f>(G131+H131-J131)/H131</f>
+        <f t="shared" si="24"/>
         <v>1.0519244010952187</v>
       </c>
     </row>
@@ -22921,23 +22920,23 @@
         <v>7.1682959969621097E-5</v>
       </c>
       <c r="AA132" s="3">
-        <f>ABS((G132-B132)/B132)</f>
+        <f t="shared" si="20"/>
         <v>2.1424209095829753E-2</v>
       </c>
       <c r="AB132" s="3">
-        <f>ABS((J132-C132)/C132)</f>
+        <f t="shared" si="21"/>
         <v>0.3324308596461959</v>
       </c>
       <c r="AC132" s="3">
-        <f>(J132-G132)/G132</f>
+        <f t="shared" si="22"/>
         <v>-5.8449615920819847E-2</v>
       </c>
       <c r="AD132" s="3">
-        <f>(J132-D132)/D132</f>
+        <f t="shared" si="23"/>
         <v>-0.46589146640666845</v>
       </c>
       <c r="AE132" s="3">
-        <f>(G132+H132-J132)/H132</f>
+        <f t="shared" si="24"/>
         <v>1.0647976835132387</v>
       </c>
     </row>
@@ -23021,23 +23020,23 @@
         <v>7.1238617238122902E-5</v>
       </c>
       <c r="AA133" s="3">
-        <f>ABS((G133-B133)/B133)</f>
+        <f t="shared" si="20"/>
         <v>8.1571689516967937E-3</v>
       </c>
       <c r="AB133" s="3">
-        <f>ABS((J133-C133)/C133)</f>
+        <f t="shared" si="21"/>
         <v>0.24665178420482134</v>
       </c>
       <c r="AC133" s="3">
-        <f>(J133-G133)/G133</f>
+        <f t="shared" si="22"/>
         <v>-6.0355916207499478E-2</v>
       </c>
       <c r="AD133" s="3">
-        <f>(J133-D133)/D133</f>
+        <f t="shared" si="23"/>
         <v>-0.18584936586577189</v>
       </c>
       <c r="AE133" s="3">
-        <f>(G133+H133-J133)/H133</f>
+        <f t="shared" si="24"/>
         <v>1.1942166052699754</v>
       </c>
     </row>
@@ -23121,23 +23120,23 @@
         <v>7.1871741965878701E-5</v>
       </c>
       <c r="AA134" s="3">
-        <f>ABS((G134-B134)/B134)</f>
+        <f t="shared" si="20"/>
         <v>2.4941505644123243E-3</v>
       </c>
       <c r="AB134" s="3">
-        <f>ABS((J134-C134)/C134)</f>
+        <f t="shared" si="21"/>
         <v>0.41074445090845407</v>
       </c>
       <c r="AC134" s="3">
-        <f>(J134-G134)/G134</f>
+        <f t="shared" si="22"/>
         <v>-6.301502426534776E-2</v>
       </c>
       <c r="AD134" s="3">
-        <f>(J134-D134)/D134</f>
+        <f t="shared" si="23"/>
         <v>-0.17862912932844155</v>
       </c>
       <c r="AE134" s="3">
-        <f>(G134+H134-J134)/H134</f>
+        <f t="shared" si="24"/>
         <v>1.1996680808706766</v>
       </c>
     </row>
@@ -23221,23 +23220,23 @@
         <v>7.2289702075067894E-5</v>
       </c>
       <c r="AA135" s="3">
-        <f>ABS((G135-B135)/B135)</f>
+        <f t="shared" si="20"/>
         <v>2.4466953457797536E-2</v>
       </c>
       <c r="AB135" s="3">
-        <f>ABS((J135-C135)/C135)</f>
+        <f t="shared" si="21"/>
         <v>0.82429667649850247</v>
       </c>
       <c r="AC135" s="3">
-        <f>(J135-G135)/G135</f>
+        <f t="shared" si="22"/>
         <v>-6.5369023952933439E-2</v>
       </c>
       <c r="AD135" s="3">
-        <f>(J135-D135)/D135</f>
+        <f t="shared" si="23"/>
         <v>-6.5784426531216342E-2</v>
       </c>
       <c r="AE135" s="3">
-        <f>(G135+H135-J135)/H135</f>
+        <f t="shared" si="24"/>
         <v>1.4409748085825262</v>
       </c>
     </row>
@@ -23321,23 +23320,23 @@
         <v>7.3166869697161005E-5</v>
       </c>
       <c r="AA136" s="3">
-        <f>ABS((G136-B136)/B136)</f>
+        <f t="shared" si="20"/>
         <v>1.0768196354790163E-2</v>
       </c>
       <c r="AB136" s="3">
-        <f>ABS((J136-C136)/C136)</f>
+        <f t="shared" si="21"/>
         <v>0.19557873176573212</v>
       </c>
       <c r="AC136" s="3">
-        <f>(J136-G136)/G136</f>
+        <f t="shared" si="22"/>
         <v>-6.8997779086584332E-2</v>
       </c>
       <c r="AD136" s="3">
-        <f>(J136-D136)/D136</f>
+        <f t="shared" si="23"/>
         <v>-0.48000094165164747</v>
       </c>
       <c r="AE136" s="3">
-        <f>(G136+H136-J136)/H136</f>
+        <f t="shared" si="24"/>
         <v>1.0783040387074254</v>
       </c>
     </row>
@@ -23421,23 +23420,23 @@
         <v>7.2193441155832207E-5</v>
       </c>
       <c r="AA137" s="3">
-        <f>ABS((G137-B137)/B137)</f>
+        <f t="shared" si="20"/>
         <v>4.5516381503028216E-3</v>
       </c>
       <c r="AB137" s="3">
-        <f>ABS((J137-C137)/C137)</f>
+        <f t="shared" si="21"/>
         <v>0.7244714917190701</v>
       </c>
       <c r="AC137" s="3">
-        <f>(J137-G137)/G137</f>
+        <f t="shared" si="22"/>
         <v>-9.7742553427342851E-2</v>
       </c>
       <c r="AD137" s="3">
-        <f>(J137-D137)/D137</f>
+        <f t="shared" si="23"/>
         <v>-0.14403823466084067</v>
       </c>
       <c r="AE137" s="3">
-        <f>(G137+H137-J137)/H137</f>
+        <f t="shared" si="24"/>
         <v>1.2222826382148644</v>
       </c>
     </row>
@@ -23521,23 +23520,23 @@
         <v>7.26011858205311E-5</v>
       </c>
       <c r="AA138" s="3">
-        <f>ABS((G138-B138)/B138)</f>
+        <f t="shared" si="20"/>
         <v>2.6320562631728727E-2</v>
       </c>
       <c r="AB138" s="3">
-        <f>ABS((J138-C138)/C138)</f>
+        <f t="shared" si="21"/>
         <v>0.10066804315021623</v>
       </c>
       <c r="AC138" s="3">
-        <f>(J138-G138)/G138</f>
+        <f t="shared" si="22"/>
         <v>-0.11103293249846183</v>
       </c>
       <c r="AD138" s="3">
-        <f>(J138-D138)/D138</f>
+        <f t="shared" si="23"/>
         <v>-0.16732495329713792</v>
       </c>
       <c r="AE138" s="3">
-        <f>(G138+H138-J138)/H138</f>
+        <f t="shared" si="24"/>
         <v>1.5179179740995679</v>
       </c>
     </row>
@@ -23621,23 +23620,23 @@
         <v>7.21715332474559E-5</v>
       </c>
       <c r="AA139" s="3">
-        <f>ABS((G139-B139)/B139)</f>
+        <f t="shared" si="20"/>
         <v>8.8559753686310375E-2</v>
       </c>
       <c r="AB139" s="3">
-        <f>ABS((J139-C139)/C139)</f>
+        <f t="shared" si="21"/>
         <v>0.26913460645837212</v>
       </c>
       <c r="AC139" s="3">
-        <f>(J139-G139)/G139</f>
+        <f t="shared" si="22"/>
         <v>-0.11655931156494907</v>
       </c>
       <c r="AD139" s="3">
-        <f>(J139-D139)/D139</f>
+        <f t="shared" si="23"/>
         <v>-0.12393669593600308</v>
       </c>
       <c r="AE139" s="3">
-        <f>(G139+H139-J139)/H139</f>
+        <f t="shared" si="24"/>
         <v>1.7474378106181085</v>
       </c>
     </row>
@@ -23721,23 +23720,23 @@
         <v>7.1779606514610296E-5</v>
       </c>
       <c r="AA140" s="3">
-        <f>ABS((G140-B140)/B140)</f>
+        <f t="shared" si="20"/>
         <v>8.7948215180724907E-3</v>
       </c>
       <c r="AB140" s="3">
-        <f>ABS((J140-C140)/C140)</f>
+        <f t="shared" si="21"/>
         <v>1.8119569463143193</v>
       </c>
       <c r="AC140" s="3">
-        <f>(J140-G140)/G140</f>
+        <f t="shared" si="22"/>
         <v>-0.11976313113086964</v>
       </c>
       <c r="AD140" s="3">
-        <f>(J140-D140)/D140</f>
+        <f t="shared" si="23"/>
         <v>-0.11976313113086964</v>
       </c>
       <c r="AE140" s="3">
-        <f>(G140+H140-J140)/H140</f>
+        <f t="shared" si="24"/>
         <v>1.1197631311308696</v>
       </c>
     </row>
@@ -23821,23 +23820,23 @@
         <v>7.3032912041526206E-5</v>
       </c>
       <c r="AA141" s="3">
-        <f>ABS((G141-B141)/B141)</f>
+        <f t="shared" si="20"/>
         <v>3.3018636342439234E-2</v>
       </c>
       <c r="AB141" s="3">
-        <f>ABS((J141-C141)/C141)</f>
+        <f t="shared" si="21"/>
         <v>0.63157522602508653</v>
       </c>
       <c r="AC141" s="3">
-        <f>(J141-G141)/G141</f>
+        <f t="shared" si="22"/>
         <v>-0.13178197402920347</v>
       </c>
       <c r="AD141" s="3">
-        <f>(J141-D141)/D141</f>
+        <f t="shared" si="23"/>
         <v>-0.18155377853398402</v>
       </c>
       <c r="AE141" s="3">
-        <f>(G141+H141-J141)/H141</f>
+        <f t="shared" si="24"/>
         <v>1.3597269521874502</v>
       </c>
     </row>
@@ -23921,27 +23920,27 @@
         <v>7.3529728979337906E-5</v>
       </c>
       <c r="AA142" s="3">
-        <f>ABS((G142-B142)/B142)</f>
+        <f t="shared" si="20"/>
         <v>0.83521166996073171</v>
       </c>
       <c r="AB142" s="3">
-        <f>ABS((J142-C142)/C142)</f>
+        <f t="shared" si="21"/>
         <v>0.33020610015161284</v>
       </c>
       <c r="AC142" s="3">
-        <f>(J142-G142)/G142</f>
+        <f t="shared" si="22"/>
         <v>-0.14180335021042226</v>
       </c>
       <c r="AD142" s="3">
-        <f>(J142-D142)/D142</f>
+        <f t="shared" si="23"/>
         <v>-0.15241578277915793</v>
       </c>
       <c r="AE142" s="3">
-        <f>(G142+H142-J142)/H142</f>
+        <f t="shared" si="24"/>
         <v>7.4781070599124257</v>
       </c>
     </row>
-    <row r="143" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>62</v>
       </c>
@@ -24021,23 +24020,23 @@
         <v>7.2005379479378394E-5</v>
       </c>
       <c r="AA143" s="3">
-        <f>ABS((G143-B143)/B143)</f>
+        <f t="shared" si="20"/>
         <v>1.1878204317388652E-2</v>
       </c>
       <c r="AB143" s="3">
-        <f>ABS((J143-C143)/C143)</f>
+        <f t="shared" si="21"/>
         <v>0.50215526961810253</v>
       </c>
       <c r="AC143" s="3">
-        <f>(J143-G143)/G143</f>
+        <f t="shared" si="22"/>
         <v>-0.57468175061894811</v>
       </c>
       <c r="AD143" s="3">
-        <f>(J143-D143)/D143</f>
+        <f t="shared" si="23"/>
         <v>-0.60028429813897066</v>
       </c>
       <c r="AE143" s="3">
-        <f>(G143+H143-J143)/H143</f>
+        <f t="shared" si="24"/>
         <v>4.2838101798375563</v>
       </c>
     </row>
@@ -24121,27 +24120,27 @@
         <v>7.2253431426361203E-5</v>
       </c>
       <c r="AA144" s="3">
-        <f>ABS((G144-B144)/B144)</f>
+        <f t="shared" si="20"/>
         <v>9.2098066457349734E-3</v>
       </c>
       <c r="AB144" s="3">
-        <f>ABS((J144-C144)/C144)</f>
+        <f t="shared" si="21"/>
         <v>0.86927848904778426</v>
       </c>
       <c r="AC144" s="3">
-        <f>(J144-G144)/G144</f>
+        <f t="shared" si="22"/>
         <v>-0.15308405237189682</v>
       </c>
       <c r="AD144" s="3">
-        <f>(J144-D144)/D144</f>
+        <f t="shared" si="23"/>
         <v>-0.15147479729573074</v>
       </c>
       <c r="AE144" s="3">
-        <f>(G144+H144-J144)/H144</f>
+        <f t="shared" si="24"/>
         <v>2.8034952435390563</v>
       </c>
     </row>
-    <row r="145" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>33</v>
       </c>
@@ -24221,23 +24220,23 @@
         <v>7.2180991992354298E-5</v>
       </c>
       <c r="AA145" s="3">
-        <f>ABS((G145-B145)/B145)</f>
+        <f t="shared" si="20"/>
         <v>1.660479097848502E-2</v>
       </c>
       <c r="AB145" s="3">
-        <f>ABS((J145-C145)/C145)</f>
+        <f t="shared" si="21"/>
         <v>0.82144495152787622</v>
       </c>
       <c r="AC145" s="3">
-        <f>(J145-G145)/G145</f>
+        <f t="shared" si="22"/>
         <v>-0.64003001324241982</v>
       </c>
       <c r="AD145" s="3">
-        <f>(J145-D145)/D145</f>
+        <f t="shared" si="23"/>
         <v>-0.6517984727666416</v>
       </c>
       <c r="AE145" s="3">
-        <f>(G145+H145-J145)/H145</f>
+        <f t="shared" si="24"/>
         <v>6.2455678455791359</v>
       </c>
     </row>
@@ -24321,27 +24320,27 @@
         <v>7.2924340202007402E-5</v>
       </c>
       <c r="AA146" s="3">
-        <f>ABS((G146-B146)/B146)</f>
+        <f t="shared" si="20"/>
         <v>3.0497293991348869E-2</v>
       </c>
       <c r="AB146" s="3">
-        <f>ABS((J146-C146)/C146)</f>
+        <f t="shared" si="21"/>
         <v>0.6949126135552407</v>
       </c>
       <c r="AC146" s="3">
-        <f>(J146-G146)/G146</f>
+        <f t="shared" si="22"/>
         <v>-0.15889869086114317</v>
       </c>
       <c r="AD146" s="3">
-        <f>(J146-D146)/D146</f>
+        <f t="shared" si="23"/>
         <v>-0.20447890480364758</v>
       </c>
       <c r="AE146" s="3">
-        <f>(G146+H146-J146)/H146</f>
+        <f t="shared" si="24"/>
         <v>1.3633043869896269</v>
       </c>
     </row>
-    <row r="147" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>31</v>
       </c>
@@ -24421,23 +24420,23 @@
         <v>7.2212314989883398E-5</v>
       </c>
       <c r="AA147" s="3">
-        <f>ABS((G147-B147)/B147)</f>
+        <f t="shared" si="20"/>
         <v>3.2017779497656877E-2</v>
       </c>
       <c r="AB147" s="3">
-        <f>ABS((J147-C147)/C147)</f>
+        <f t="shared" si="21"/>
         <v>0.33500395005152867</v>
       </c>
       <c r="AC147" s="3">
-        <f>(J147-G147)/G147</f>
+        <f t="shared" si="22"/>
         <v>-0.59448444714077664</v>
       </c>
       <c r="AD147" s="3">
-        <f>(J147-D147)/D147</f>
+        <f t="shared" si="23"/>
         <v>-0.61434252404458933</v>
       </c>
       <c r="AE147" s="3">
-        <f>(G147+H147-J147)/H147</f>
+        <f t="shared" si="24"/>
         <v>4.6714044443174734</v>
       </c>
     </row>
@@ -24521,27 +24520,27 @@
         <v>7.2912698669824695E-5</v>
       </c>
       <c r="AA148" s="3">
-        <f>ABS((G148-B148)/B148)</f>
+        <f t="shared" si="20"/>
         <v>0.46944647054056104</v>
       </c>
       <c r="AB148" s="3">
-        <f>ABS((J148-C148)/C148)</f>
+        <f t="shared" si="21"/>
         <v>0.48449092785909403</v>
       </c>
       <c r="AC148" s="3">
-        <f>(J148-G148)/G148</f>
+        <f t="shared" si="22"/>
         <v>-0.17364610129963134</v>
       </c>
       <c r="AD148" s="3">
-        <f>(J148-D148)/D148</f>
+        <f t="shared" si="23"/>
         <v>-0.22804851097441226</v>
       </c>
       <c r="AE148" s="3">
-        <f>(G148+H148-J148)/H148</f>
+        <f t="shared" si="24"/>
         <v>2.7568068269681607</v>
       </c>
     </row>
-    <row r="149" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>61</v>
       </c>
@@ -24621,23 +24620,23 @@
         <v>7.3680523200891898E-5</v>
       </c>
       <c r="AA149" s="3">
-        <f>ABS((G149-B149)/B149)</f>
+        <f t="shared" si="20"/>
         <v>2.4198750778511833E-2</v>
       </c>
       <c r="AB149" s="3">
-        <f>ABS((J149-C149)/C149)</f>
+        <f t="shared" si="21"/>
         <v>0.55083182035326994</v>
       </c>
       <c r="AC149" s="3">
-        <f>(J149-G149)/G149</f>
+        <f t="shared" si="22"/>
         <v>-0.26941963713770817</v>
       </c>
       <c r="AD149" s="3">
-        <f>(J149-D149)/D149</f>
+        <f t="shared" si="23"/>
         <v>-0.36509875593726232</v>
       </c>
       <c r="AE149" s="3">
-        <f>(G149+H149-J149)/H149</f>
+        <f t="shared" si="24"/>
         <v>1.5989119009573192</v>
       </c>
     </row>
@@ -24721,23 +24720,23 @@
         <v>7.2511698817834204E-5</v>
       </c>
       <c r="AA150" s="3">
-        <f>ABS((G150-B150)/B150)</f>
+        <f t="shared" si="20"/>
         <v>9.7089851139519623E-3</v>
       </c>
       <c r="AB150" s="3">
-        <f>ABS((J150-C150)/C150)</f>
+        <f t="shared" si="21"/>
         <v>0.60862334485502589</v>
       </c>
       <c r="AC150" s="3">
-        <f>(J150-G150)/G150</f>
+        <f t="shared" si="22"/>
         <v>-0.17612284125190469</v>
       </c>
       <c r="AD150" s="3">
-        <f>(J150-D150)/D150</f>
+        <f t="shared" si="23"/>
         <v>-0.20070681013251035</v>
       </c>
       <c r="AE150" s="3">
-        <f>(G150+H150-J150)/H150</f>
+        <f t="shared" si="24"/>
         <v>1.5210875959160348</v>
       </c>
     </row>
@@ -24821,23 +24820,23 @@
         <v>7.1861169999465306E-5</v>
       </c>
       <c r="AA151" s="3">
-        <f>ABS((G151-B151)/B151)</f>
+        <f t="shared" si="20"/>
         <v>1.1692050410009377E-3</v>
       </c>
       <c r="AB151" s="3">
-        <f>ABS((J151-C151)/C151)</f>
+        <f t="shared" si="21"/>
         <v>1.5414797771233182</v>
       </c>
       <c r="AC151" s="3">
-        <f>(J151-G151)/G151</f>
+        <f t="shared" si="22"/>
         <v>-0.1872744881604762</v>
       </c>
       <c r="AD151" s="3">
-        <f>(J151-D151)/D151</f>
+        <f t="shared" si="23"/>
         <v>-0.1872744881604762</v>
       </c>
       <c r="AE151" s="3">
-        <f>(G151+H151-J151)/H151</f>
+        <f t="shared" si="24"/>
         <v>1.1872744881604762</v>
       </c>
     </row>
@@ -24921,23 +24920,23 @@
         <v>7.2578943218104501E-5</v>
       </c>
       <c r="AA152" s="3">
-        <f>ABS((G152-B152)/B152)</f>
+        <f t="shared" si="20"/>
         <v>3.6450003538647288E-2</v>
       </c>
       <c r="AB152" s="3">
-        <f>ABS((J152-C152)/C152)</f>
+        <f t="shared" si="21"/>
         <v>0.11336290974315966</v>
       </c>
       <c r="AC152" s="3">
-        <f>(J152-G152)/G152</f>
+        <f t="shared" si="22"/>
         <v>-0.19989245717787282</v>
       </c>
       <c r="AD152" s="3">
-        <f>(J152-D152)/D152</f>
+        <f t="shared" si="23"/>
         <v>-0.23684778188256042</v>
       </c>
       <c r="AE152" s="3">
-        <f>(G152+H152-J152)/H152</f>
+        <f t="shared" si="24"/>
         <v>2.2353918514597746</v>
       </c>
     </row>
@@ -25021,23 +25020,23 @@
         <v>7.2505099524278194E-5</v>
       </c>
       <c r="AA153" s="3">
-        <f>ABS((G153-B153)/B153)</f>
+        <f t="shared" si="20"/>
         <v>1.5801737152800492E-3</v>
       </c>
       <c r="AB153" s="3">
-        <f>ABS((J153-C153)/C153)</f>
+        <f t="shared" si="21"/>
         <v>1.5612323082226467</v>
       </c>
       <c r="AC153" s="3">
-        <f>(J153-G153)/G153</f>
+        <f t="shared" si="22"/>
         <v>-0.22532741693787359</v>
       </c>
       <c r="AD153" s="3">
-        <f>(J153-D153)/D153</f>
+        <f t="shared" si="23"/>
         <v>-0.22532741693787359</v>
       </c>
       <c r="AE153" s="3">
-        <f>(G153+H153-J153)/H153</f>
+        <f t="shared" si="24"/>
         <v>1.2253274169378736</v>
       </c>
     </row>
@@ -25121,23 +25120,23 @@
         <v>7.2069429734256105E-5</v>
       </c>
       <c r="AA154" s="3">
-        <f>ABS((G154-B154)/B154)</f>
+        <f t="shared" si="20"/>
         <v>2.3980596511364752E-2</v>
       </c>
       <c r="AB154" s="3">
-        <f>ABS((J154-C154)/C154)</f>
+        <f t="shared" si="21"/>
         <v>0.58947145140452883</v>
       </c>
       <c r="AC154" s="3">
-        <f>(J154-G154)/G154</f>
+        <f t="shared" si="22"/>
         <v>-0.23154358753417356</v>
       </c>
       <c r="AD154" s="3">
-        <f>(J154-D154)/D154</f>
+        <f t="shared" si="23"/>
         <v>-0.27026933599400066</v>
       </c>
       <c r="AE154" s="3">
-        <f>(G154+H154-J154)/H154</f>
+        <f t="shared" si="24"/>
         <v>1.715551301131071</v>
       </c>
     </row>
@@ -25221,23 +25220,23 @@
         <v>7.2602728323545293E-5</v>
       </c>
       <c r="AA155" s="3">
-        <f>ABS((G155-B155)/B155)</f>
+        <f t="shared" si="20"/>
         <v>2.7025640546324028E-2</v>
       </c>
       <c r="AB155" s="3">
-        <f>ABS((J155-C155)/C155)</f>
+        <f t="shared" si="21"/>
         <v>1.5580942906625321</v>
       </c>
       <c r="AC155" s="3">
-        <f>(J155-G155)/G155</f>
+        <f t="shared" si="22"/>
         <v>-0.31303111237085685</v>
       </c>
       <c r="AD155" s="3">
-        <f>(J155-D155)/D155</f>
+        <f t="shared" si="23"/>
         <v>-0.31303111237085685</v>
       </c>
       <c r="AE155" s="3">
-        <f>(G155+H155-J155)/H155</f>
+        <f t="shared" si="24"/>
         <v>1.3130311123708569</v>
       </c>
     </row>
@@ -25321,23 +25320,23 @@
         <v>7.2071496106218506E-5</v>
       </c>
       <c r="AA156" s="3">
-        <f>ABS((G156-B156)/B156)</f>
+        <f t="shared" si="20"/>
         <v>3.9264401089588015E-2</v>
       </c>
       <c r="AB156" s="3">
-        <f>ABS((J156-C156)/C156)</f>
+        <f t="shared" si="21"/>
         <v>0.34309929354283558</v>
       </c>
       <c r="AC156" s="3">
-        <f>(J156-G156)/G156</f>
+        <f t="shared" si="22"/>
         <v>-0.32088036902827061</v>
       </c>
       <c r="AD156" s="3">
-        <f>(J156-D156)/D156</f>
+        <f t="shared" si="23"/>
         <v>-0.32407110168208153</v>
       </c>
       <c r="AE156" s="3">
-        <f>(G156+H156-J156)/H156</f>
+        <f t="shared" si="24"/>
         <v>3.7869537285311523</v>
       </c>
     </row>
@@ -25421,23 +25420,23 @@
         <v>7.3384471761528403E-5</v>
       </c>
       <c r="AA157" s="3">
-        <f>ABS((G157-B157)/B157)</f>
+        <f t="shared" si="20"/>
         <v>1.9008107194250268E-2</v>
       </c>
       <c r="AB157" s="3">
-        <f>ABS((J157-C157)/C157)</f>
+        <f t="shared" si="21"/>
         <v>0.60180162635108125</v>
       </c>
       <c r="AC157" s="3">
-        <f>(J157-G157)/G157</f>
+        <f t="shared" si="22"/>
         <v>-0.33568622100702311</v>
       </c>
       <c r="AD157" s="3">
-        <f>(J157-D157)/D157</f>
+        <f t="shared" si="23"/>
         <v>-0.35495296979774482</v>
       </c>
       <c r="AE157" s="3">
-        <f>(G157+H157-J157)/H157</f>
+        <f t="shared" si="24"/>
         <v>2.2812118866633644</v>
       </c>
     </row>
@@ -25521,23 +25520,23 @@
         <v>7.4510084232315394E-5</v>
       </c>
       <c r="AA158" s="3">
-        <f>ABS((G158-B158)/B158)</f>
+        <f t="shared" si="20"/>
         <v>1.9963559959963323E-2</v>
       </c>
       <c r="AB158" s="3">
-        <f>ABS((J158-C158)/C158)</f>
+        <f t="shared" si="21"/>
         <v>0.73498179194018654</v>
       </c>
       <c r="AC158" s="3">
-        <f>(J158-G158)/G158</f>
+        <f t="shared" si="22"/>
         <v>-0.35056334797096939</v>
       </c>
       <c r="AD158" s="3">
-        <f>(J158-D158)/D158</f>
+        <f t="shared" si="23"/>
         <v>-0.39155231564415377</v>
       </c>
       <c r="AE158" s="3">
-        <f>(G158+H158-J158)/H158</f>
+        <f t="shared" si="24"/>
         <v>2.5611497715685951</v>
       </c>
     </row>
@@ -25621,23 +25620,23 @@
         <v>7.2156100941356204E-5</v>
       </c>
       <c r="AA159" s="3">
-        <f>ABS((G159-B159)/B159)</f>
+        <f t="shared" si="20"/>
         <v>0.17402369617479929</v>
       </c>
       <c r="AB159" s="3">
-        <f>ABS((J159-C159)/C159)</f>
+        <f t="shared" si="21"/>
         <v>0.46360668281274547</v>
       </c>
       <c r="AC159" s="3">
-        <f>(J159-G159)/G159</f>
+        <f t="shared" si="22"/>
         <v>-0.35658949742732488</v>
       </c>
       <c r="AD159" s="3">
-        <f>(J159-D159)/D159</f>
+        <f t="shared" si="23"/>
         <v>-0.4220418323334576</v>
       </c>
       <c r="AE159" s="3">
-        <f>(G159+H159-J159)/H159</f>
+        <f t="shared" si="24"/>
         <v>3.172630927478215</v>
       </c>
     </row>
@@ -25721,23 +25720,23 @@
         <v>7.2453432949259796E-5</v>
       </c>
       <c r="AA160" s="3">
-        <f>ABS((G160-B160)/B160)</f>
+        <f t="shared" si="20"/>
         <v>0.37416770711459829</v>
       </c>
       <c r="AB160" s="3">
-        <f>ABS((J160-C160)/C160)</f>
+        <f t="shared" si="21"/>
         <v>0.40844252493017713</v>
       </c>
       <c r="AC160" s="3">
-        <f>(J160-G160)/G160</f>
+        <f t="shared" si="22"/>
         <v>-0.42269543659194869</v>
       </c>
       <c r="AD160" s="3">
-        <f>(J160-D160)/D160</f>
+        <f t="shared" si="23"/>
         <v>-0.471444845999693</v>
       </c>
       <c r="AE160" s="3">
-        <f>(G160+H160-J160)/H160</f>
+        <f t="shared" si="24"/>
         <v>4.166845470422138</v>
       </c>
     </row>
@@ -25821,33 +25820,28 @@
         <v>7.2364797233603895E-5</v>
       </c>
       <c r="AA161" s="3">
-        <f>ABS((G161-B161)/B161)</f>
+        <f t="shared" si="20"/>
         <v>2.6238549303001027E-2</v>
       </c>
       <c r="AB161" s="3">
-        <f>ABS((J161-C161)/C161)</f>
+        <f t="shared" si="21"/>
         <v>0.73498179194018654</v>
       </c>
       <c r="AC161" s="3">
-        <f>(J161-G161)/G161</f>
+        <f t="shared" si="22"/>
         <v>-0.49769880834572694</v>
       </c>
       <c r="AD161" s="3">
-        <f>(J161-D161)/D161</f>
+        <f t="shared" si="23"/>
         <v>-0.52257502673358436</v>
       </c>
       <c r="AE161" s="3">
-        <f>(G161+H161-J161)/H161</f>
+        <f t="shared" si="24"/>
         <v>3.8656110918076116</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:AE161" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <filterColumn colId="0">
-      <customFilters>
-        <customFilter operator="notEqual" val="*long*"/>
-      </customFilters>
-    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AE161">
       <sortCondition descending="1" ref="AC1:AC161"/>
     </sortState>
@@ -50195,8 +50189,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AE29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:XFD29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -54673,7 +54667,7 @@
         <v>0.92166943072704666</v>
       </c>
       <c r="F34" s="17">
-        <f t="shared" ref="F34:F65" si="3">ABS(B34-E34)</f>
+        <f t="shared" ref="F34:F57" si="3">ABS(B34-E34)</f>
         <v>7.8330569272953343E-2</v>
       </c>
     </row>
@@ -55708,7 +55702,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{636A4EF3-F9F7-4589-B494-0272D8A73B73}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="V15" sqref="V15"/>
     </sheetView>
   </sheetViews>
